--- a/Excel/Three Storey Hospital.xlsx
+++ b/Excel/Three Storey Hospital.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Aircon\Aircon\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041ED569-B592-453D-8BDC-3491ECBA4D27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9680DE28-BF04-42B8-9EF4-47DAE01858AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXTERNAL WALL LOAD" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="DOOR PARTITION LOAD" sheetId="11" r:id="rId9"/>
     <sheet name="LIGHTING LOAD" sheetId="10" r:id="rId10"/>
     <sheet name="Heat Load Calculation Summary" sheetId="12" r:id="rId11"/>
-    <sheet name="Psychrometric Calculation" sheetId="15" r:id="rId12"/>
+    <sheet name="Piping Calculation" sheetId="15" r:id="rId12"/>
     <sheet name="References" sheetId="4" state="hidden" r:id="rId13"/>
   </sheets>
   <definedNames>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="593">
   <si>
     <t>Space</t>
   </si>
@@ -1876,6 +1876,108 @@
   <si>
     <t>Ql/p</t>
   </si>
+  <si>
+    <t>GPM</t>
+  </si>
+  <si>
+    <t>Nominal Diamater (in)</t>
+  </si>
+  <si>
+    <t>Nominal Diameter (m)</t>
+  </si>
+  <si>
+    <t>inside diamtere (in)</t>
+  </si>
+  <si>
+    <t>Inside Diameter (m)</t>
+  </si>
+  <si>
+    <t>Velocity (ft/s)</t>
+  </si>
+  <si>
+    <t>pres grad (ft/100ft)</t>
+  </si>
+  <si>
+    <t>Pressure Gradient (Pa/m)</t>
+  </si>
+  <si>
+    <t>Equivalent Length (m)</t>
+  </si>
+  <si>
+    <t>Pressure Drop (Pa)</t>
+  </si>
+  <si>
+    <t>chiller - pump</t>
+  </si>
+  <si>
+    <t>pump - A</t>
+  </si>
+  <si>
+    <t>A-B</t>
+  </si>
+  <si>
+    <t>B-C</t>
+  </si>
+  <si>
+    <t>C-D</t>
+  </si>
+  <si>
+    <t>D-E</t>
+  </si>
+  <si>
+    <t>E-F</t>
+  </si>
+  <si>
+    <t>F-G</t>
+  </si>
+  <si>
+    <t>G-H</t>
+  </si>
+  <si>
+    <t>H-I</t>
+  </si>
+  <si>
+    <t>I-J</t>
+  </si>
+  <si>
+    <t>J-K</t>
+  </si>
+  <si>
+    <t>K-L</t>
+  </si>
+  <si>
+    <t>L-M</t>
+  </si>
+  <si>
+    <t>M-N</t>
+  </si>
+  <si>
+    <t>N-O</t>
+  </si>
+  <si>
+    <t>O-P</t>
+  </si>
+  <si>
+    <t>P-Q</t>
+  </si>
+  <si>
+    <t>Q-R</t>
+  </si>
+  <si>
+    <t>R-S</t>
+  </si>
+  <si>
+    <t>S-T</t>
+  </si>
+  <si>
+    <t>T-AHU</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Total Pressure Drop</t>
+  </si>
 </sst>
 </file>
 
@@ -2321,7 +2423,7 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2719,6 +2821,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2743,12 +2848,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2758,6 +2857,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2765,6 +2870,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2776,7 +2884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2797,9 +2905,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2812,6 +2917,38 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent5" xfId="3" builtinId="45"/>
@@ -2820,7 +2957,397 @@
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
     <cellStyle name="Title" xfId="2" builtinId="15"/>
   </cellStyles>
-  <dxfs count="396">
+  <dxfs count="412">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="17" formatCode="#\ ?/?"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4146,46 +4673,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -6959,16 +7446,6 @@
           <color auto="1"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -9741,16 +10218,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color auto="1"/>
@@ -10660,23 +11127,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:K37" totalsRowShown="0" headerRowDxfId="395" headerRowBorderDxfId="394" tableBorderDxfId="393" totalsRowBorderDxfId="392">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:K37" totalsRowShown="0" headerRowDxfId="411" headerRowBorderDxfId="410" tableBorderDxfId="409" totalsRowBorderDxfId="408">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Space" dataDxfId="391"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Orientation" dataDxfId="390"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="U" dataDxfId="389"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="A(m^2)" dataDxfId="388"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CLTDsel" dataDxfId="387"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="LM" dataDxfId="386"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="k" dataDxfId="385"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ti" dataDxfId="384"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Tave" dataDxfId="383">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Space" dataDxfId="407"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Orientation" dataDxfId="406"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="U" dataDxfId="405"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="A(m^2)" dataDxfId="404"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CLTDsel" dataDxfId="403"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="LM" dataDxfId="402"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="k" dataDxfId="401"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ti" dataDxfId="400"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Tave" dataDxfId="399">
       <calculatedColumnFormula>(References!T$4)-(References!T$3/2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="CLTD adj" dataDxfId="382">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="CLTD adj" dataDxfId="398">
       <calculatedColumnFormula>(E4+F4)*G4+(25-H4)+(I4-29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Q(W)" dataDxfId="381">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Q(W)" dataDxfId="397">
       <calculatedColumnFormula>C4*D4*E4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10685,18 +11152,18 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table10" displayName="Table10" ref="A3:H44" totalsRowShown="0" headerRowDxfId="264" dataDxfId="262" headerRowBorderDxfId="263" tableBorderDxfId="261" totalsRowBorderDxfId="260">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table10" displayName="Table10" ref="A3:H44" totalsRowShown="0" headerRowDxfId="281" dataDxfId="279" headerRowBorderDxfId="280" tableBorderDxfId="278" totalsRowBorderDxfId="277">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SPACE" dataDxfId="259"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Equipment" dataDxfId="258"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="WATTAGE" dataDxfId="257"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Cs" dataDxfId="256"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Cl" dataDxfId="255"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="CLF" dataDxfId="254"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="Qs (W)" dataDxfId="253">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="SPACE" dataDxfId="276"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Equipment" dataDxfId="275"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="WATTAGE" dataDxfId="274"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Cs" dataDxfId="273"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Cl" dataDxfId="272"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="CLF" dataDxfId="271"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="Qs (W)" dataDxfId="270">
       <calculatedColumnFormula>D4*C4*F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="Ql (W)" dataDxfId="252">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="Ql (W)" dataDxfId="269">
       <calculatedColumnFormula>C4*E4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10705,18 +11172,18 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table11" displayName="Table11" ref="A49:H89" totalsRowShown="0" headerRowDxfId="251" headerRowBorderDxfId="250" tableBorderDxfId="249" totalsRowBorderDxfId="248">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table11" displayName="Table11" ref="A49:H89" totalsRowShown="0" headerRowDxfId="268" headerRowBorderDxfId="267" tableBorderDxfId="266" totalsRowBorderDxfId="265">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="SPACE" dataDxfId="247"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Equipment" dataDxfId="246"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Wattage" dataDxfId="245"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="CS" dataDxfId="244"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Cl" dataDxfId="243"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="CLF" dataDxfId="242"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="Qs (W)" dataDxfId="241">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="SPACE" dataDxfId="264"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Equipment" dataDxfId="263"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Wattage" dataDxfId="262"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="CS" dataDxfId="261"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Cl" dataDxfId="260"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="CLF" dataDxfId="259"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="Qs (W)" dataDxfId="258">
       <calculatedColumnFormula>D50*C50*F50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="Ql (W)" dataDxfId="240">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="Ql (W)" dataDxfId="257">
       <calculatedColumnFormula>E50*C50</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10725,18 +11192,18 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table12" displayName="Table12" ref="A94:H127" totalsRowShown="0" headerRowDxfId="239" headerRowBorderDxfId="238" tableBorderDxfId="237" totalsRowBorderDxfId="236">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table12" displayName="Table12" ref="A94:H127" totalsRowShown="0" headerRowDxfId="256" headerRowBorderDxfId="255" tableBorderDxfId="254" totalsRowBorderDxfId="253">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="SPACE" dataDxfId="235"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Equipment" dataDxfId="234"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Wattage" dataDxfId="233"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Cs" dataDxfId="232"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Cl" dataDxfId="231"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="CLF" dataDxfId="230"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="Qs (W)" dataDxfId="229">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="SPACE" dataDxfId="252"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Equipment" dataDxfId="251"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Wattage" dataDxfId="250"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Cs" dataDxfId="249"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Cl" dataDxfId="248"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="CLF" dataDxfId="247"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="Qs (W)" dataDxfId="246">
       <calculatedColumnFormula>C95*D95*F95</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="Qw (W)" dataDxfId="228">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="Qw (W)" dataDxfId="245">
       <calculatedColumnFormula>E95*C95</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10745,18 +11212,18 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table13" displayName="Table13" ref="A4:H48" totalsRowShown="0" headerRowDxfId="227" headerRowBorderDxfId="226" tableBorderDxfId="225" totalsRowBorderDxfId="224">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table13" displayName="Table13" ref="A4:H48" totalsRowShown="0" headerRowDxfId="244" headerRowBorderDxfId="243" tableBorderDxfId="242" totalsRowBorderDxfId="241">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="SPACE" dataDxfId="223"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="U" dataDxfId="222"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Area (m2)" dataDxfId="221"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="CLTDmax" dataDxfId="220"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Ti" dataDxfId="219"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="Tave" dataDxfId="218"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="CLTDadj" dataDxfId="217">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="SPACE" dataDxfId="240"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="U" dataDxfId="239"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Area (m2)" dataDxfId="238"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="CLTDmax" dataDxfId="237"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Ti" dataDxfId="236"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="Tave" dataDxfId="235"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="CLTDadj" dataDxfId="234">
       <calculatedColumnFormula>((D5*0.75)+(25-E5)+(F5-29))*0.75</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="Q(W)" dataDxfId="216">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="Q(W)" dataDxfId="233">
       <calculatedColumnFormula>B5*C5*G5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10765,17 +11232,17 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table15" displayName="Table15" ref="A94:G197" totalsRowShown="0" headerRowDxfId="214" headerRowBorderDxfId="213" tableBorderDxfId="212" totalsRowBorderDxfId="211">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table15" displayName="Table15" ref="A94:G197" totalsRowShown="0" headerRowDxfId="232" headerRowBorderDxfId="231" tableBorderDxfId="230" totalsRowBorderDxfId="229">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="Space" dataDxfId="210"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="Spaces" dataDxfId="209"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="U" dataDxfId="208"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="A" dataDxfId="207">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="Space" dataDxfId="228"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="Spaces" dataDxfId="227"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="U" dataDxfId="226"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="A" dataDxfId="225">
       <calculatedColumnFormula>References!AM4-References!AL4-References!AK4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="Ti" dataDxfId="206"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="Ti2" dataDxfId="205"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="Q" dataDxfId="204">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="Ti" dataDxfId="224"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="Ti2" dataDxfId="223"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="Q" dataDxfId="222">
       <calculatedColumnFormula>ABS(C95*D95*(F95-E95))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10784,17 +11251,17 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table16" displayName="Table16" ref="A201:G295" totalsRowShown="0" headerRowDxfId="203" headerRowBorderDxfId="202" tableBorderDxfId="201" totalsRowBorderDxfId="200">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table16" displayName="Table16" ref="A201:G295" totalsRowShown="0" headerRowDxfId="221" headerRowBorderDxfId="220" tableBorderDxfId="219" totalsRowBorderDxfId="218">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="Space" dataDxfId="199"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="Spaces" dataDxfId="198"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="U" dataDxfId="197"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="A" dataDxfId="196">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="Space" dataDxfId="217"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="Spaces" dataDxfId="216"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="U" dataDxfId="215"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="A" dataDxfId="214">
       <calculatedColumnFormula>References!AQ4-References!AP4-References!AO4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="Ti" dataDxfId="195"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0F00-000006000000}" name="Ti2" dataDxfId="194"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0F00-000007000000}" name="Q" dataDxfId="193">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="Ti" dataDxfId="213"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0F00-000006000000}" name="Ti2" dataDxfId="212"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0F00-000007000000}" name="Q" dataDxfId="211">
       <calculatedColumnFormula>ABS(C202*D202*(F202-E202))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10803,17 +11270,17 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table14" displayName="Table14" ref="A3:G89" totalsRowShown="0" headerRowDxfId="192" headerRowBorderDxfId="191" tableBorderDxfId="190" totalsRowBorderDxfId="189">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table14" displayName="Table14" ref="A3:G89" totalsRowShown="0" headerRowDxfId="210" headerRowBorderDxfId="209" tableBorderDxfId="208" totalsRowBorderDxfId="207">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Space" dataDxfId="188"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Spaces" dataDxfId="187"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="U" dataDxfId="186"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="A" dataDxfId="185">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Space" dataDxfId="206"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Spaces" dataDxfId="205"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="U" dataDxfId="204"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="A" dataDxfId="203">
       <calculatedColumnFormula>References!AI4-References!AH4-References!AG4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="Ti" dataDxfId="184"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="Ti2" dataDxfId="183"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="Q" dataDxfId="182">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="Ti" dataDxfId="202"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="Ti2" dataDxfId="201"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="Q" dataDxfId="200">
       <calculatedColumnFormula>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10822,25 +11289,25 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table17" displayName="Table17" ref="A3:K40" totalsRowShown="0" headerRowDxfId="181" dataDxfId="179" headerRowBorderDxfId="180" tableBorderDxfId="178" totalsRowBorderDxfId="177">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table17" displayName="Table17" ref="A3:K40" totalsRowShown="0" headerRowDxfId="199" dataDxfId="197" headerRowBorderDxfId="198" tableBorderDxfId="196" totalsRowBorderDxfId="195">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="SPACE" dataDxfId="176" totalsRowDxfId="175"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="Occ" dataDxfId="174" totalsRowDxfId="173"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="L/s" dataDxfId="172" totalsRowDxfId="171">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="SPACE" dataDxfId="194" totalsRowDxfId="193"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="Occ" dataDxfId="192" totalsRowDxfId="191"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="L/s" dataDxfId="190" totalsRowDxfId="189">
       <calculatedColumnFormula>B4*References!AS4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="To" dataDxfId="170" totalsRowDxfId="169"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="Ti" dataDxfId="168" totalsRowDxfId="167"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="Wo" dataDxfId="166" totalsRowDxfId="165"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" name="Wi" dataDxfId="164" totalsRowDxfId="163"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1000-000008000000}" name="Qs (W)" dataDxfId="162" totalsRowDxfId="161">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="To" dataDxfId="188" totalsRowDxfId="187"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="Ti" dataDxfId="186" totalsRowDxfId="185"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="Wo" dataDxfId="184" totalsRowDxfId="183"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" name="Wi" dataDxfId="182" totalsRowDxfId="181"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1000-000008000000}" name="Qs (W)" dataDxfId="180" totalsRowDxfId="179">
       <calculatedColumnFormula>ABS(1.232*C4*(D4-E4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1000-000009000000}" name="Qw (W)" dataDxfId="160">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1000-000009000000}" name="Qw (W)" dataDxfId="178">
       <calculatedColumnFormula>ABS(3000*C4*(F4-G4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9079F61E-220C-499E-ABA0-0F86347EC19E}" name="Area" dataDxfId="159" totalsRowDxfId="158"/>
-    <tableColumn id="11" xr3:uid="{FF77AB06-4124-4F4F-B1B4-ADF4FE72722D}" name="Column1" dataDxfId="157" totalsRowDxfId="156">
+    <tableColumn id="10" xr3:uid="{9079F61E-220C-499E-ABA0-0F86347EC19E}" name="Area" dataDxfId="177" totalsRowDxfId="176"/>
+    <tableColumn id="11" xr3:uid="{FF77AB06-4124-4F4F-B1B4-ADF4FE72722D}" name="Column1" dataDxfId="175" totalsRowDxfId="174">
       <calculatedColumnFormula>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10849,26 +11316,26 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table18" displayName="Table18" ref="A45:J89" totalsRowShown="0" headerRowDxfId="155" dataDxfId="153" headerRowBorderDxfId="154" tableBorderDxfId="152" totalsRowBorderDxfId="151">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table18" displayName="Table18" ref="A45:J89" totalsRowShown="0" headerRowDxfId="173" dataDxfId="171" headerRowBorderDxfId="172" tableBorderDxfId="170" totalsRowBorderDxfId="169">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="SPACE" dataDxfId="150"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="Occ." dataDxfId="149"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="L/s" dataDxfId="148">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="SPACE" dataDxfId="168"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="Occ." dataDxfId="167"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="L/s" dataDxfId="166">
       <calculatedColumnFormula>B46*References!AT4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="To" dataDxfId="147"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="Ti" dataDxfId="146"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="Wo" dataDxfId="145"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="Wi" dataDxfId="144">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="To" dataDxfId="165"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="Ti" dataDxfId="164"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="Wo" dataDxfId="163"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="Wi" dataDxfId="162">
       <calculatedColumnFormula>_xlfn.IFS(E46=22.5,0.00848061,E46=22,0.00821976,E46=24,0.00929323)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1100-000008000000}" name="Qs(W)" dataDxfId="143">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1100-000008000000}" name="Qs(W)" dataDxfId="161">
       <calculatedColumnFormula>ABS(1.232*C46*(D46-E46))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1100-000009000000}" name="Ql(W)" dataDxfId="142">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1100-000009000000}" name="Ql(W)" dataDxfId="160">
       <calculatedColumnFormula>ABS(3000*C46*(F46-G46))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1C4326E1-2CFD-41B1-9A69-1696EA1A9ECF}" name="Column1" dataDxfId="141">
+    <tableColumn id="10" xr3:uid="{1C4326E1-2CFD-41B1-9A69-1696EA1A9ECF}" name="Column1" dataDxfId="159">
       <calculatedColumnFormula>Table18[[#This Row],[L/s]]/Table18[[#This Row],[Occ.]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10877,26 +11344,26 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table19" displayName="Table19" ref="A94:J126" totalsRowShown="0" headerRowDxfId="140" dataDxfId="138" headerRowBorderDxfId="139" tableBorderDxfId="137" totalsRowBorderDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table19" displayName="Table19" ref="A94:J126" totalsRowShown="0" headerRowDxfId="158" dataDxfId="156" headerRowBorderDxfId="157" tableBorderDxfId="155" totalsRowBorderDxfId="154">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="Space" dataDxfId="135"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="Occ." dataDxfId="134"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="L/s" dataDxfId="133">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="Space" dataDxfId="153"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="Occ." dataDxfId="152"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="L/s" dataDxfId="151">
       <calculatedColumnFormula>B95*References!AU4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="To" dataDxfId="132"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="Ti" dataDxfId="131"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="Wo" dataDxfId="130"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="Wi" dataDxfId="129">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="To" dataDxfId="150"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="Ti" dataDxfId="149"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="Wo" dataDxfId="148"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="Wi" dataDxfId="147">
       <calculatedColumnFormula>_xlfn.IFS(E95=22.5,0.00848031,E95=24,0.009293235,E95=22,0.00821976)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" name="Qs(W)" dataDxfId="128">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" name="Qs(W)" dataDxfId="146">
       <calculatedColumnFormula>ABS(1.232*C95*(D95-E95))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1200-000009000000}" name="Ql(W)" dataDxfId="127">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1200-000009000000}" name="Ql(W)" dataDxfId="145">
       <calculatedColumnFormula>ABS(3000*C95*(F95-G95))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2CF665D1-4AA0-4D3B-843D-424EC0815E5C}" name="Column1" dataDxfId="126">
+    <tableColumn id="10" xr3:uid="{2CF665D1-4AA0-4D3B-843D-424EC0815E5C}" name="Column1" dataDxfId="144">
       <calculatedColumnFormula>Table19[[#This Row],[L/s]]/Table19[[#This Row],[Occ.]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10905,29 +11372,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A88:K130" totalsRowShown="0" headerRowDxfId="380" headerRowBorderDxfId="379" tableBorderDxfId="378" totalsRowBorderDxfId="377">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A88:K130" totalsRowShown="0" headerRowDxfId="396" headerRowBorderDxfId="395" tableBorderDxfId="394" totalsRowBorderDxfId="393">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Space" dataDxfId="376"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Orientation" dataDxfId="375"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="U" dataDxfId="374"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="A(m^2)" dataDxfId="373">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Space" dataDxfId="392"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Orientation" dataDxfId="391"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="U" dataDxfId="390"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="A(m^2)" dataDxfId="389">
       <calculatedColumnFormula>(References!C41*4)-(References!B41*1)-(References!A41*2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="CLTDsel" dataDxfId="372">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="CLTDsel" dataDxfId="388">
       <calculatedColumnFormula>_xlfn.IFS(B89="E",25,B89="N",13,B89="W",33,B89="S",22)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="LM" dataDxfId="371">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="LM" dataDxfId="387">
       <calculatedColumnFormula>_xlfn.IFS(B89="E",-0.55,B89="N",2.22,B89="W",-0.55,B89="S",-3.88)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="k" dataDxfId="370"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Ti" dataDxfId="369"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Tave" dataDxfId="368">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="k" dataDxfId="386"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Ti" dataDxfId="385"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Tave" dataDxfId="384">
       <calculatedColumnFormula>(References!T$4)-(References!T$3/2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="CLTD adj" dataDxfId="367">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="CLTD adj" dataDxfId="383">
       <calculatedColumnFormula>(E89+F89)*G89+(25-H89)+(I89-29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Q(W)" dataDxfId="366">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Q(W)" dataDxfId="382">
       <calculatedColumnFormula>C89*D89*E89</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10936,24 +11403,24 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table20" displayName="Table20" ref="A94:J126" totalsRowShown="0" headerRowDxfId="125" dataDxfId="123" headerRowBorderDxfId="124" tableBorderDxfId="122" totalsRowBorderDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table20" displayName="Table20" ref="A94:J126" totalsRowShown="0" headerRowDxfId="143" dataDxfId="141" headerRowBorderDxfId="142" tableBorderDxfId="140" totalsRowBorderDxfId="139">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="SPACE" dataDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Occ" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="Gain/person" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Sensible" dataDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="Latent" dataDxfId="116"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="CLF" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="Qs (W)" dataDxfId="114">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="SPACE" dataDxfId="138"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Occ" dataDxfId="137"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="Gain/person" dataDxfId="136"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Sensible" dataDxfId="135"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="Latent" dataDxfId="134"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="CLF" dataDxfId="133"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="Qs (W)" dataDxfId="132">
       <calculatedColumnFormula>B95*C95*D95*F95</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" name="Ql (W)" dataDxfId="113">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1300-000008000000}" name="Ql (W)" dataDxfId="131">
       <calculatedColumnFormula>B95*C95*E95*F95</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C7270352-DCB9-45F2-96C6-7CD764B68BF1}" name="Qs/p" dataDxfId="112">
+    <tableColumn id="9" xr3:uid="{C7270352-DCB9-45F2-96C6-7CD764B68BF1}" name="Qs/p" dataDxfId="130">
       <calculatedColumnFormula>Table20[[#This Row],[Qs (W)]]/Table20[[#This Row],[Occ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A6408986-3097-491D-A3C3-E925273CB26C}" name="Ql/p" dataDxfId="111">
+    <tableColumn id="10" xr3:uid="{A6408986-3097-491D-A3C3-E925273CB26C}" name="Ql/p" dataDxfId="129">
       <calculatedColumnFormula>Table20[[#This Row],[Ql (W)]]/Table20[[#This Row],[Occ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10962,24 +11429,24 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table21" displayName="Table21" ref="A45:J89" totalsRowShown="0" headerRowDxfId="110" dataDxfId="108" headerRowBorderDxfId="109" tableBorderDxfId="107" totalsRowBorderDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table21" displayName="Table21" ref="A45:J89" totalsRowShown="0" headerRowDxfId="128" dataDxfId="126" headerRowBorderDxfId="127" tableBorderDxfId="125" totalsRowBorderDxfId="124">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="SPACE" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="Occ" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="Gain/person" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="Sensible" dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="Latent" dataDxfId="101"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="CLF" dataDxfId="100"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1400-000007000000}" name="Qs (W)" dataDxfId="99">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="SPACE" dataDxfId="123"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="Occ" dataDxfId="122"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="Gain/person" dataDxfId="121"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="Sensible" dataDxfId="120"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="Latent" dataDxfId="119"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="CLF" dataDxfId="118"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1400-000007000000}" name="Qs (W)" dataDxfId="117">
       <calculatedColumnFormula>B46*C46*D46*F46</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1400-000008000000}" name="Ql (W)" dataDxfId="98">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1400-000008000000}" name="Ql (W)" dataDxfId="116">
       <calculatedColumnFormula>B46*C46*E46</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9C156E53-3836-4E11-AE25-61319BB9C97D}" name="Qs/p" dataDxfId="97">
+    <tableColumn id="9" xr3:uid="{9C156E53-3836-4E11-AE25-61319BB9C97D}" name="Qs/p" dataDxfId="115">
       <calculatedColumnFormula>Table21[[#This Row],[Qs (W)]]/Table21[[#This Row],[Occ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{BECB2526-6C56-4872-A9D8-7F5203A93240}" name="Ql/p" dataDxfId="96">
+    <tableColumn id="10" xr3:uid="{BECB2526-6C56-4872-A9D8-7F5203A93240}" name="Ql/p" dataDxfId="114">
       <calculatedColumnFormula>Table21[[#This Row],[Ql (W)]]/Table21[[#This Row],[Occ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10988,24 +11455,24 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Table22" displayName="Table22" ref="A3:J40" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92" totalsRowBorderDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Table22" displayName="Table22" ref="A3:J40" totalsRowShown="0" headerRowDxfId="113" dataDxfId="111" headerRowBorderDxfId="112" tableBorderDxfId="110" totalsRowBorderDxfId="109">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="SPACE" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="Occ" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="Gain/person" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="Sensible" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="Latent" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="CLF" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="Qs (W)" dataDxfId="84">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="SPACE" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="Occ" dataDxfId="107"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="Gain/person" dataDxfId="106"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="Sensible" dataDxfId="105"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="Latent" dataDxfId="104"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="CLF" dataDxfId="103"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="Qs (W)" dataDxfId="102">
       <calculatedColumnFormula>B4*C4*D4*F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1500-000008000000}" name="Ql (W)" dataDxfId="83">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1500-000008000000}" name="Ql (W)" dataDxfId="101">
       <calculatedColumnFormula>C4*E4*F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{81A2A970-A71D-4369-BF27-74645C3525D3}" name="Qs/p" dataDxfId="82">
+    <tableColumn id="9" xr3:uid="{81A2A970-A71D-4369-BF27-74645C3525D3}" name="Qs/p" dataDxfId="100">
       <calculatedColumnFormula>Table22[[#This Row],[Qs (W)]]/Table22[[#This Row],[Occ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00B2EC34-FEC5-40F4-8C34-2A32011D0D59}" name="Ql/p" dataDxfId="81">
+    <tableColumn id="10" xr3:uid="{00B2EC34-FEC5-40F4-8C34-2A32011D0D59}" name="Ql/p" dataDxfId="99">
       <calculatedColumnFormula>Table22[[#This Row],[Ql (W)]]/Table22[[#This Row],[Occ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11014,17 +11481,17 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{64F8AD3E-DA26-4AB7-A8B3-FED43A0DA675}" name="Table26" displayName="Table26" ref="A3:G62" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75" tableBorderDxfId="73" totalsRowBorderDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{64F8AD3E-DA26-4AB7-A8B3-FED43A0DA675}" name="Table26" displayName="Table26" ref="A3:G62" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95" totalsRowBorderDxfId="94">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3D15F0BA-E56A-48AD-8475-8EDB97578663}" name="Space 1" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{E6499B88-C35B-459A-B806-100CCDCDCA2B}" name="Space 2" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{D2D2D7C6-259A-4E15-80D5-76BCB5F2755C}" name="U" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{0764F60A-9AFF-45C7-9B37-2675DAC3354B}" name="Area" dataDxfId="68">
+    <tableColumn id="1" xr3:uid="{3D15F0BA-E56A-48AD-8475-8EDB97578663}" name="Space 1" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{E6499B88-C35B-459A-B806-100CCDCDCA2B}" name="Space 2" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{D2D2D7C6-259A-4E15-80D5-76BCB5F2755C}" name="U" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{0764F60A-9AFF-45C7-9B37-2675DAC3354B}" name="Area" dataDxfId="90">
       <calculatedColumnFormula>References!AW4*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{089F04A6-59E5-4D01-9963-34848ABB08D8}" name="Ti" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{6D9BF11B-E4DD-49A6-BD0B-97AA2C4E05C7}" name="To" dataDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{5A992B19-DB89-40D9-A7B7-A2A63D74CAB2}" name="Qs (W)" dataDxfId="65">
+    <tableColumn id="5" xr3:uid="{089F04A6-59E5-4D01-9963-34848ABB08D8}" name="Ti" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{6D9BF11B-E4DD-49A6-BD0B-97AA2C4E05C7}" name="To" dataDxfId="88"/>
+    <tableColumn id="7" xr3:uid="{5A992B19-DB89-40D9-A7B7-A2A63D74CAB2}" name="Qs (W)" dataDxfId="87">
       <calculatedColumnFormula>ABS(C4*D4*(F4-E4))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11033,17 +11500,17 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{EBF95BE4-81ED-476D-A997-E43089A78204}" name="Table27" displayName="Table27" ref="A66:G136" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61" totalsRowBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{EBF95BE4-81ED-476D-A997-E43089A78204}" name="Table27" displayName="Table27" ref="A66:G136" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83" totalsRowBorderDxfId="82">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{69C0A91B-A3FC-4753-82E6-7AD406608DA3}" name="Space 1" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{AEE5E517-E89F-4369-AB32-02BDCE5550D6}" name="Space 2" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{534EF880-A31A-4F02-8D63-58BC01851CB2}" name="U" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{ADBF381F-28C0-4B1C-A4BB-4EC3FA91953E}" name="Area" dataDxfId="56">
+    <tableColumn id="1" xr3:uid="{69C0A91B-A3FC-4753-82E6-7AD406608DA3}" name="Space 1" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{AEE5E517-E89F-4369-AB32-02BDCE5550D6}" name="Space 2" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{534EF880-A31A-4F02-8D63-58BC01851CB2}" name="U" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{ADBF381F-28C0-4B1C-A4BB-4EC3FA91953E}" name="Area" dataDxfId="78">
       <calculatedColumnFormula>2*References!AX4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{08AF1E93-1E3D-45EA-A5CD-31D81BB6DB0E}" name="Ti" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{83FA9F78-25A4-454A-8AD3-5A7975FA8352}" name="To" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{F7BB9612-AFD7-41F9-9A2B-39116DFCDF64}" name="Qs (W)" dataDxfId="53">
+    <tableColumn id="5" xr3:uid="{08AF1E93-1E3D-45EA-A5CD-31D81BB6DB0E}" name="Ti" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{83FA9F78-25A4-454A-8AD3-5A7975FA8352}" name="To" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{F7BB9612-AFD7-41F9-9A2B-39116DFCDF64}" name="Qs (W)" dataDxfId="75">
       <calculatedColumnFormula>ABS(C67*D67*(F67-E67))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11052,17 +11519,17 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{88EC8EFE-4C0E-46A7-9559-595CD2FC3D4F}" name="Table31" displayName="Table31" ref="A140:G200" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{88EC8EFE-4C0E-46A7-9559-595CD2FC3D4F}" name="Table31" displayName="Table31" ref="A140:G200" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AEFCFF34-ED8A-4D1B-928C-1A4AC9803B91}" name="Space 1" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{55781A89-E632-4F5A-B9AE-B40CDA4E25A8}" name="Space 2" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{16E0CBE7-3940-41CE-8530-A2D6900F4684}" name="U" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{9A5A6631-C755-4076-9BF0-63662EC62164}" name="Area" dataDxfId="45">
+    <tableColumn id="1" xr3:uid="{AEFCFF34-ED8A-4D1B-928C-1A4AC9803B91}" name="Space 1" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{55781A89-E632-4F5A-B9AE-B40CDA4E25A8}" name="Space 2" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{16E0CBE7-3940-41CE-8530-A2D6900F4684}" name="U" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{9A5A6631-C755-4076-9BF0-63662EC62164}" name="Area" dataDxfId="67">
       <calculatedColumnFormula>2*References!AY4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{31F594E5-5372-4099-AA2F-E0C7F12066AA}" name="Ti" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{28C0F865-E043-41E8-A8E9-9B5DE187E7CF}" name="To" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{A12774DA-FA6C-45F2-A816-9E6CC1F9185F}" name="Qs (W)" dataDxfId="42">
+    <tableColumn id="5" xr3:uid="{31F594E5-5372-4099-AA2F-E0C7F12066AA}" name="Ti" dataDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{28C0F865-E043-41E8-A8E9-9B5DE187E7CF}" name="To" dataDxfId="65"/>
+    <tableColumn id="7" xr3:uid="{A12774DA-FA6C-45F2-A816-9E6CC1F9185F}" name="Qs (W)" dataDxfId="64">
       <calculatedColumnFormula>ABS(C141*D141*(F141-E141))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11071,16 +11538,16 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table23" displayName="Table23" ref="A3:F62" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table23" displayName="Table23" ref="A3:F62" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="SPACE" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="W" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="SPACE" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="W" dataDxfId="57">
       <calculatedColumnFormula>13*References!BA4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Fu" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="Fb" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="CLF" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="Qs (W)" dataDxfId="31">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Fu" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="Fb" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="CLF" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="Qs (W)" dataDxfId="53">
       <calculatedColumnFormula>B4*C4*D4*E4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11089,16 +11556,16 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Table24" displayName="Table24" ref="A66:F116" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Table24" displayName="Table24" ref="A66:F116" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49" totalsRowBorderDxfId="48">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="SPACE" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="W" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="SPACE" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="W" dataDxfId="46">
       <calculatedColumnFormula>13*References!BB4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="Fu" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="Fb" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1700-000005000000}" name="CLF" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1700-000006000000}" name="Qs (W)" dataDxfId="20">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="Fu" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="Fb" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1700-000005000000}" name="CLF" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1700-000006000000}" name="Qs (W)" dataDxfId="42">
       <calculatedColumnFormula>B67*C67*D67*E67</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11107,14 +11574,14 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table25" displayName="Table25" ref="A120:F166" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table25" displayName="Table25" ref="A120:F166" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="SPACE" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="W" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="Fu" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Fb" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="CLF" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="Qs (W)" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="SPACE" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="W" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="Fu" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Fb" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="CLF" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="Qs (W)" dataDxfId="31">
       <calculatedColumnFormula>B121*C121*D121*E121</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11122,22 +11589,51 @@
 </table>
 </file>
 
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{AB8D14A5-F48B-4ACF-BE39-EEFE78975F00}" name="Table28" displayName="Table28" ref="A1:K23" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{6FB24CDE-13B6-4444-931F-5C160C64D339}" name="Points" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{2909BD0D-AE61-46D3-ADA2-B39DAAA78DEA}" name="L/s" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{245DE6F8-CBEF-4552-B2AA-5223967004D4}" name="GPM" dataDxfId="10">
+      <calculatedColumnFormula>B2*15.850372483753</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{BDF044BB-102E-4E16-BBBB-C24B7DF1621F}" name="Nominal Diamater (in)" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{6B04D4D4-E9F6-49A6-99CC-4C048146B451}" name="Nominal Diameter (m)" dataDxfId="8">
+      <calculatedColumnFormula>(D2*25.4)/1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{AF1F765F-866D-42BB-B94A-886436CFF9A0}" name="inside diamtere (in)" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{5855902B-EE10-45B0-999D-7F9AC745425F}" name="Inside Diameter (m)" dataDxfId="6">
+      <calculatedColumnFormula>(F2*25.4)/1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{692C8D45-8CBB-4979-95CB-BDA73AD399E1}" name="Velocity (ft/s)" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{0CC92715-902E-440C-B8CB-99D24B82DCF5}" name="Pressure Gradient (Pa/m)" dataDxfId="4">
+      <calculatedColumnFormula>(O2/100)*2989.06689999997*3.281</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{3D1581BE-E808-409B-8E87-1176CF188885}" name="Equivalent Length (m)" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{1786AE73-E4B4-4C82-9074-0EAB1F559BB8}" name="Pressure Drop (Pa)" dataDxfId="2">
+      <calculatedColumnFormula>I2*J2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table6" displayName="Table6" ref="A41:K84" totalsRowShown="0" headerRowDxfId="365" headerRowBorderDxfId="364" tableBorderDxfId="363" totalsRowBorderDxfId="362">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table6" displayName="Table6" ref="A41:K84" totalsRowShown="0" headerRowDxfId="381" headerRowBorderDxfId="380" tableBorderDxfId="379" totalsRowBorderDxfId="378">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Space" dataDxfId="361"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Orientation" dataDxfId="360"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="U" dataDxfId="359"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="A(m^2)" dataDxfId="358"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="CLTDsel" dataDxfId="357"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="LM" dataDxfId="356"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="k" dataDxfId="355"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Ti" dataDxfId="354"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Tave" dataDxfId="353"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="CLTD adj" dataDxfId="352">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Space" dataDxfId="377"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Orientation" dataDxfId="376"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="U" dataDxfId="375"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="A(m^2)" dataDxfId="374"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="CLTDsel" dataDxfId="373"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="LM" dataDxfId="372"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="k" dataDxfId="371"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Ti" dataDxfId="370"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Tave" dataDxfId="369"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="CLTD adj" dataDxfId="368">
       <calculatedColumnFormula>(E42+F42)*G42+(25-H42)+(I42-29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Q(W)" dataDxfId="351">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Q(W)" dataDxfId="367">
       <calculatedColumnFormula>C42*D42*J42</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11146,27 +11642,27 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="A3:K33" totalsRowShown="0" headerRowDxfId="349" headerRowBorderDxfId="348" tableBorderDxfId="347" totalsRowBorderDxfId="346">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="A3:K33" totalsRowShown="0" headerRowDxfId="366" headerRowBorderDxfId="365" tableBorderDxfId="364" totalsRowBorderDxfId="363">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Space" dataDxfId="345"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Orientation" dataDxfId="344"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="U" dataDxfId="343"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="To" dataDxfId="342"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Ti" dataDxfId="341"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="A(m^2)" dataDxfId="340">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Space" dataDxfId="362"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Orientation" dataDxfId="361"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="U" dataDxfId="360"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="To" dataDxfId="359"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Ti" dataDxfId="358"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="A(m^2)" dataDxfId="357">
       <calculatedColumnFormula>References!E5*References!F5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="SHGF" dataDxfId="339">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="SHGF" dataDxfId="356">
       <calculatedColumnFormula>_xlfn.IFS(B4="E",685,B4="N",120,B4="W",685,B4="S",230)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="SCL" dataDxfId="338">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="SCL" dataDxfId="355">
       <calculatedColumnFormula>_xlfn.IFS(B4="E",0.8,B4="N",0.91,B4="W",0.82,B4="S",0.83)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="SC" dataDxfId="337"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Qsg (W)" dataDxfId="336">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="SC" dataDxfId="354"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Qsg (W)" dataDxfId="353">
       <calculatedColumnFormula>G4*H4*F4*I4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Qth (W)" dataDxfId="335">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Qth (W)" dataDxfId="352">
       <calculatedColumnFormula>ABS((C4*F4)*(D4-E4))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11175,27 +11671,27 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A73:K99" totalsRowShown="0" headerRowDxfId="334" dataDxfId="332" headerRowBorderDxfId="333" tableBorderDxfId="331" totalsRowBorderDxfId="330">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A73:K99" totalsRowShown="0" headerRowDxfId="351" dataDxfId="349" headerRowBorderDxfId="350" tableBorderDxfId="348" totalsRowBorderDxfId="347">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Space" dataDxfId="329"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Orientation" dataDxfId="328"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="U" dataDxfId="327"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="To" dataDxfId="326"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Ti" dataDxfId="325"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="A(m^2)" dataDxfId="324">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Space" dataDxfId="346"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Orientation" dataDxfId="345"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="U" dataDxfId="344"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="To" dataDxfId="343"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Ti" dataDxfId="342"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="A(m^2)" dataDxfId="341">
       <calculatedColumnFormula>References!E41*References!F41</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="SHGF" dataDxfId="323">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="SHGF" dataDxfId="340">
       <calculatedColumnFormula>_xlfn.IFS(B74="E",685,B74="N",120,B74="W",685,B74="S",230)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="SCL" dataDxfId="322">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="SCL" dataDxfId="339">
       <calculatedColumnFormula>_xlfn.IFS(B74="E",0.8,B74="N",0.91,B74="W",0.82,B74="S",0.83)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="SC" dataDxfId="321"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Qsg (W)" dataDxfId="320">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="SC" dataDxfId="338"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Qsg (W)" dataDxfId="337">
       <calculatedColumnFormula>G74*H74*F74*I74</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Qth (W)" dataDxfId="319">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Qth (W)" dataDxfId="336">
       <calculatedColumnFormula>ABS((C74*F74)*(D74-E74))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11204,25 +11700,25 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table7" displayName="Table7" ref="A39:K68" totalsRowShown="0" headerRowDxfId="318" headerRowBorderDxfId="317" tableBorderDxfId="316" totalsRowBorderDxfId="315">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table7" displayName="Table7" ref="A39:K68" totalsRowShown="0" headerRowDxfId="335" headerRowBorderDxfId="334" tableBorderDxfId="333" totalsRowBorderDxfId="332">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Space" dataDxfId="314"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Orientation" dataDxfId="313"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="U" dataDxfId="312"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="To" dataDxfId="311"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Ti" dataDxfId="310"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="A(m^2)" dataDxfId="309"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="SHGF" dataDxfId="308">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Space" dataDxfId="331"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Orientation" dataDxfId="330"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="U" dataDxfId="329"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="To" dataDxfId="328"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Ti" dataDxfId="327"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="A(m^2)" dataDxfId="326"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="SHGF" dataDxfId="325">
       <calculatedColumnFormula>_xlfn.IFS(B40="N",120,B40="E",685,B40="S",230,B40="W",685)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="SCL" dataDxfId="307">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="SCL" dataDxfId="324">
       <calculatedColumnFormula>_xlfn.IFS(B40="N",0.91,B40="E",0.8,B40="S",0.83,B40="W",0.82)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="SC" dataDxfId="306"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Qsg (W)" dataDxfId="305">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="SC" dataDxfId="323"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Qsg (W)" dataDxfId="322">
       <calculatedColumnFormula>I40*H40*G40*F40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Qth (W)" dataDxfId="304">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Qth (W)" dataDxfId="321">
       <calculatedColumnFormula>ABS((C40*F40)*(D40-E40))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11231,25 +11727,25 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table8" displayName="Table8" ref="A77:I157" totalsRowShown="0" headerRowDxfId="303" headerRowBorderDxfId="302" tableBorderDxfId="301" totalsRowBorderDxfId="300">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table8" displayName="Table8" ref="A77:I157" totalsRowShown="0" headerRowDxfId="320" headerRowBorderDxfId="319" tableBorderDxfId="318" totalsRowBorderDxfId="317">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="SPACE" dataDxfId="299"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Volume" dataDxfId="298">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="SPACE" dataDxfId="316"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Volume" dataDxfId="315">
       <calculatedColumnFormula>References!AB4*4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="L/s" dataDxfId="297">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="L/s" dataDxfId="314">
       <calculatedColumnFormula>((0.15+0.01*3+0.007*(D78-E78))*B78)/3.6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="To" dataDxfId="296"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Ti" dataDxfId="295"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Wo" dataDxfId="294"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Wi" dataDxfId="293">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="To" dataDxfId="313"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Ti" dataDxfId="312"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Wo" dataDxfId="311"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Wi" dataDxfId="310">
       <calculatedColumnFormula>_xlfn.IFS(E78=22.5,0.00848061,E78=22,0.00821976,E78=24,0.00929323,E78=28,0.0118162235)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Qs (W)" dataDxfId="292">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Qs (W)" dataDxfId="309">
       <calculatedColumnFormula>ABS(1.23*C78*(D78-E78))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Ql (W)" dataDxfId="291">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Ql (W)" dataDxfId="308">
       <calculatedColumnFormula>ABS(3000*C78*(F78-G78))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11258,25 +11754,25 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table4" displayName="Table4" ref="A162:I236" totalsRowShown="0" headerRowDxfId="290" headerRowBorderDxfId="289" tableBorderDxfId="288" totalsRowBorderDxfId="287">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table4" displayName="Table4" ref="A162:I236" totalsRowShown="0" headerRowDxfId="307" headerRowBorderDxfId="306" tableBorderDxfId="305" totalsRowBorderDxfId="304">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Space" dataDxfId="286"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Volume" dataDxfId="285">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Space" dataDxfId="303"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Volume" dataDxfId="302">
       <calculatedColumnFormula>References!AE4*4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="L/s" dataDxfId="284">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="L/s" dataDxfId="301">
       <calculatedColumnFormula>(References!AD4*B163)/3.6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="To" dataDxfId="283"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Ti" dataDxfId="282"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Wo" dataDxfId="281"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Wi" dataDxfId="280">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="To" dataDxfId="300"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Ti" dataDxfId="299"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Wo" dataDxfId="298"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Wi" dataDxfId="297">
       <calculatedColumnFormula>_xlfn.IFS(E163=22.5,0.00848031,E163=24,0.009293235,E163=22,0.00821976,E163=28,0.0118162235)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Qs" dataDxfId="279">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Qs" dataDxfId="296">
       <calculatedColumnFormula>ABS(1.232*(D163-E163)*C163)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="Ql" dataDxfId="278">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="Ql" dataDxfId="295">
       <calculatedColumnFormula>ABS(3000*C163*(F163-G163))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11285,23 +11781,23 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table9" displayName="Table9" ref="A3:I72" totalsRowShown="0" headerRowDxfId="277" headerRowBorderDxfId="276" tableBorderDxfId="275" totalsRowBorderDxfId="274">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table9" displayName="Table9" ref="A3:I72" totalsRowShown="0" headerRowDxfId="294" headerRowBorderDxfId="293" tableBorderDxfId="292" totalsRowBorderDxfId="291">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SPACE" dataDxfId="273"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Volume" dataDxfId="272">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="SPACE" dataDxfId="290"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Volume" dataDxfId="289">
       <calculatedColumnFormula>References!Z4*4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="L/s" dataDxfId="271">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="L/s" dataDxfId="288">
       <calculatedColumnFormula>(References!Y4*B4)/3.6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="To" dataDxfId="270"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Ti" dataDxfId="269"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Wo" dataDxfId="268"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Wi" dataDxfId="267"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Qs (W)" dataDxfId="266">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="To" dataDxfId="287"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Ti" dataDxfId="286"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Wo" dataDxfId="285"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Wi" dataDxfId="284"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Qs (W)" dataDxfId="283">
       <calculatedColumnFormula>ABS((1.232*(D4-E4)*C4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="Ql (W)" dataDxfId="265">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="Ql (W)" dataDxfId="282">
       <calculatedColumnFormula>ABS(3000*C4*(F4-G4))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11631,34 +12127,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
         <v>537</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
     </row>
     <row r="2" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="183" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
@@ -11695,14 +12191,14 @@
         <v>10</v>
       </c>
       <c r="L3" s="5"/>
-      <c r="N3" s="185" t="s">
+      <c r="N3" s="186" t="s">
         <v>539</v>
       </c>
-      <c r="O3" s="185"/>
-      <c r="P3" s="185"/>
-      <c r="Q3" s="185"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="185"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="186"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
@@ -11743,14 +12239,14 @@
         <v>1492.92</v>
       </c>
       <c r="M4" s="149"/>
-      <c r="N4" s="186"/>
-      <c r="O4" s="186"/>
-      <c r="P4" s="186"/>
-      <c r="Q4" s="186" t="s">
+      <c r="N4" s="187"/>
+      <c r="O4" s="187"/>
+      <c r="P4" s="187"/>
+      <c r="Q4" s="187" t="s">
         <v>430</v>
       </c>
-      <c r="R4" s="186"/>
-      <c r="S4" s="186"/>
+      <c r="R4" s="187"/>
+      <c r="S4" s="187"/>
     </row>
     <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -11791,17 +12287,17 @@
         <v>564.59519999999998</v>
       </c>
       <c r="M5" s="149"/>
-      <c r="N5" s="187" t="s">
+      <c r="N5" s="188" t="s">
         <v>160</v>
       </c>
-      <c r="O5" s="187"/>
-      <c r="P5" s="187"/>
-      <c r="Q5" s="187">
+      <c r="O5" s="188"/>
+      <c r="P5" s="188"/>
+      <c r="Q5" s="188">
         <f>K38</f>
         <v>39227.857343999996</v>
       </c>
-      <c r="R5" s="187"/>
-      <c r="S5" s="187"/>
+      <c r="R5" s="188"/>
+      <c r="S5" s="188"/>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
@@ -11842,17 +12338,17 @@
         <v>204.66575999999998</v>
       </c>
       <c r="M6" s="149"/>
-      <c r="N6" s="187" t="s">
+      <c r="N6" s="188" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="187"/>
-      <c r="P6" s="187"/>
-      <c r="Q6" s="187">
+      <c r="O6" s="188"/>
+      <c r="P6" s="188"/>
+      <c r="Q6" s="188">
         <f>K85</f>
         <v>31364.094930011994</v>
       </c>
-      <c r="R6" s="187"/>
-      <c r="S6" s="187"/>
+      <c r="R6" s="188"/>
+      <c r="S6" s="188"/>
     </row>
     <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
@@ -11893,17 +12389,17 @@
         <v>177.847488</v>
       </c>
       <c r="M7" s="149"/>
-      <c r="N7" s="187" t="s">
+      <c r="N7" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="187"/>
-      <c r="P7" s="187"/>
-      <c r="Q7" s="187">
+      <c r="O7" s="188"/>
+      <c r="P7" s="188"/>
+      <c r="Q7" s="188">
         <f>K131</f>
         <v>48205.328184000005</v>
       </c>
-      <c r="R7" s="187"/>
-      <c r="S7" s="187"/>
+      <c r="R7" s="188"/>
+      <c r="S7" s="188"/>
     </row>
     <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
@@ -11944,17 +12440,17 @@
         <v>398.03961599999997</v>
       </c>
       <c r="M8" s="149"/>
-      <c r="N8" s="188" t="s">
+      <c r="N8" s="189" t="s">
         <v>540</v>
       </c>
-      <c r="O8" s="188"/>
-      <c r="P8" s="188"/>
-      <c r="Q8" s="181">
+      <c r="O8" s="189"/>
+      <c r="P8" s="189"/>
+      <c r="Q8" s="182">
         <f>Q5+Q6+Q7</f>
         <v>118797.28045801198</v>
       </c>
-      <c r="R8" s="181"/>
-      <c r="S8" s="181"/>
+      <c r="R8" s="182"/>
+      <c r="S8" s="182"/>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
@@ -11995,12 +12491,12 @@
         <v>398.03961599999997</v>
       </c>
       <c r="M9" s="149"/>
-      <c r="N9" s="188"/>
-      <c r="O9" s="188"/>
-      <c r="P9" s="188"/>
-      <c r="Q9" s="181"/>
-      <c r="R9" s="181"/>
-      <c r="S9" s="181"/>
+      <c r="N9" s="189"/>
+      <c r="O9" s="189"/>
+      <c r="P9" s="189"/>
+      <c r="Q9" s="182"/>
+      <c r="R9" s="182"/>
+      <c r="S9" s="182"/>
     </row>
     <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
@@ -13133,19 +13629,19 @@
     </row>
     <row r="39" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="182" t="s">
+      <c r="A40" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="182"/>
-      <c r="C40" s="182"/>
-      <c r="D40" s="182"/>
-      <c r="E40" s="182"/>
-      <c r="F40" s="182"/>
-      <c r="G40" s="182"/>
-      <c r="H40" s="182"/>
-      <c r="I40" s="182"/>
-      <c r="J40" s="182"/>
-      <c r="K40" s="182"/>
+      <c r="B40" s="183"/>
+      <c r="C40" s="183"/>
+      <c r="D40" s="183"/>
+      <c r="E40" s="183"/>
+      <c r="F40" s="183"/>
+      <c r="G40" s="183"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="183"/>
+      <c r="J40" s="183"/>
+      <c r="K40" s="183"/>
     </row>
     <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
@@ -14852,19 +15348,19 @@
       <c r="K86" s="1"/>
     </row>
     <row r="87" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A87" s="183" t="s">
+      <c r="A87" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="B87" s="183"/>
-      <c r="C87" s="183"/>
-      <c r="D87" s="183"/>
-      <c r="E87" s="183"/>
-      <c r="F87" s="183"/>
-      <c r="G87" s="183"/>
-      <c r="H87" s="183"/>
-      <c r="I87" s="183"/>
-      <c r="J87" s="183"/>
-      <c r="K87" s="183"/>
+      <c r="B87" s="184"/>
+      <c r="C87" s="184"/>
+      <c r="D87" s="184"/>
+      <c r="E87" s="184"/>
+      <c r="F87" s="184"/>
+      <c r="G87" s="184"/>
+      <c r="H87" s="184"/>
+      <c r="I87" s="184"/>
+      <c r="J87" s="184"/>
+      <c r="K87" s="184"/>
     </row>
     <row r="88" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="31" t="s">
@@ -16712,7 +17208,7 @@
   <dimension ref="A1:O167"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L169" sqref="L169"/>
+      <selection activeCell="E63" sqref="E63:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16724,26 +17220,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
         <v>535</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
       <c r="G1" s="111"/>
       <c r="H1" s="111"/>
     </row>
     <row r="2" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="183" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
       <c r="G2" s="103"/>
       <c r="H2" s="103"/>
     </row>
@@ -16766,14 +17262,14 @@
       <c r="F3" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="185" t="s">
+      <c r="J3" s="186" t="s">
         <v>539</v>
       </c>
-      <c r="K3" s="185"/>
-      <c r="L3" s="185"/>
-      <c r="M3" s="185"/>
-      <c r="N3" s="185"/>
-      <c r="O3" s="185"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="186"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="81" t="s">
@@ -16796,14 +17292,14 @@
         <f>B4*C4*D4*E4</f>
         <v>411.74972279999997</v>
       </c>
-      <c r="J4" s="186"/>
-      <c r="K4" s="186"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="186" t="s">
+      <c r="J4" s="187"/>
+      <c r="K4" s="187"/>
+      <c r="L4" s="187"/>
+      <c r="M4" s="187" t="s">
         <v>430</v>
       </c>
-      <c r="N4" s="186"/>
-      <c r="O4" s="186"/>
+      <c r="N4" s="187"/>
+      <c r="O4" s="187"/>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="81" t="s">
@@ -16826,17 +17322,17 @@
         <f t="shared" ref="F5:F61" si="0">B5*C5*D5*E5</f>
         <v>106.14389759999999</v>
       </c>
-      <c r="J5" s="187" t="s">
+      <c r="J5" s="188" t="s">
         <v>160</v>
       </c>
-      <c r="K5" s="187"/>
-      <c r="L5" s="187"/>
-      <c r="M5" s="187">
+      <c r="K5" s="188"/>
+      <c r="L5" s="188"/>
+      <c r="M5" s="188">
         <f>F63</f>
         <v>19883.609740799991</v>
       </c>
-      <c r="N5" s="187"/>
-      <c r="O5" s="187"/>
+      <c r="N5" s="188"/>
+      <c r="O5" s="188"/>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="81" t="s">
@@ -16859,17 +17355,17 @@
         <f t="shared" si="0"/>
         <v>57.317909999999991</v>
       </c>
-      <c r="J6" s="187" t="s">
+      <c r="J6" s="188" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="187">
+      <c r="K6" s="188"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="188">
         <f>F117</f>
         <v>16958.066184539995</v>
       </c>
-      <c r="N6" s="187"/>
-      <c r="O6" s="187"/>
+      <c r="N6" s="188"/>
+      <c r="O6" s="188"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="81" t="s">
@@ -16892,17 +17388,17 @@
         <f t="shared" si="0"/>
         <v>119.581254</v>
       </c>
-      <c r="J7" s="187" t="s">
+      <c r="J7" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="187"/>
-      <c r="L7" s="187"/>
-      <c r="M7" s="187">
+      <c r="K7" s="188"/>
+      <c r="L7" s="188"/>
+      <c r="M7" s="188">
         <f>F167</f>
         <v>22702.400073599994</v>
       </c>
-      <c r="N7" s="187"/>
-      <c r="O7" s="187"/>
+      <c r="N7" s="188"/>
+      <c r="O7" s="188"/>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="81" t="s">
@@ -16925,17 +17421,17 @@
         <f>B8*C8*D8*E8</f>
         <v>134.1690012</v>
       </c>
-      <c r="J8" s="188" t="s">
+      <c r="J8" s="189" t="s">
         <v>540</v>
       </c>
-      <c r="K8" s="188"/>
-      <c r="L8" s="188"/>
-      <c r="M8" s="201">
+      <c r="K8" s="189"/>
+      <c r="L8" s="189"/>
+      <c r="M8" s="203">
         <f>M5+M6+M7</f>
         <v>59544.075998939981</v>
       </c>
-      <c r="N8" s="202"/>
-      <c r="O8" s="203"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="205"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="81" t="s">
@@ -16958,12 +17454,12 @@
         <f t="shared" si="0"/>
         <v>134.51580479999998</v>
       </c>
-      <c r="J9" s="188"/>
-      <c r="K9" s="188"/>
-      <c r="L9" s="188"/>
-      <c r="M9" s="204"/>
-      <c r="N9" s="205"/>
-      <c r="O9" s="206"/>
+      <c r="J9" s="189"/>
+      <c r="K9" s="189"/>
+      <c r="L9" s="189"/>
+      <c r="M9" s="206"/>
+      <c r="N9" s="207"/>
+      <c r="O9" s="208"/>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="81" t="s">
@@ -18148,23 +18644,23 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E63" s="128" t="s">
+      <c r="E63" s="181" t="s">
         <v>333</v>
       </c>
-      <c r="F63" s="128">
+      <c r="F63" s="181">
         <f>SUM(Table23[Qs (W)])</f>
         <v>19883.609740799991</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="182" t="s">
+      <c r="A65" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="182"/>
-      <c r="C65" s="182"/>
-      <c r="D65" s="182"/>
-      <c r="E65" s="182"/>
-      <c r="F65" s="182"/>
+      <c r="B65" s="183"/>
+      <c r="C65" s="183"/>
+      <c r="D65" s="183"/>
+      <c r="E65" s="183"/>
+      <c r="F65" s="183"/>
       <c r="G65" s="103"/>
       <c r="H65" s="103"/>
     </row>
@@ -19304,14 +19800,14 @@
       </c>
     </row>
     <row r="119" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A119" s="183" t="s">
+      <c r="A119" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="B119" s="183"/>
-      <c r="C119" s="183"/>
-      <c r="D119" s="183"/>
-      <c r="E119" s="183"/>
-      <c r="F119" s="183"/>
+      <c r="B119" s="184"/>
+      <c r="C119" s="184"/>
+      <c r="D119" s="184"/>
+      <c r="E119" s="184"/>
+      <c r="F119" s="184"/>
       <c r="G119" s="106"/>
       <c r="H119" s="106"/>
     </row>
@@ -20406,12 +20902,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="118" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="212" t="s">
         <v>547</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
       <c r="E1" s="103"/>
       <c r="F1" s="103"/>
       <c r="G1" s="103"/>
@@ -20626,15 +21122,1138 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885A0F4D-A63A-4EF8-8449-24CBBFBC24A1}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.109375" style="214" customWidth="1"/>
+    <col min="2" max="2" width="12" style="214" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="215" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="214" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="214" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="214" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="214" customWidth="1"/>
+    <col min="8" max="8" width="14" style="214" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" style="214" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="214" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" style="214" customWidth="1"/>
+    <col min="12" max="14" width="8.88671875" style="214"/>
+    <col min="15" max="15" width="18.6640625" style="214" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="214"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="219" t="s">
+        <v>591</v>
+      </c>
+      <c r="B1" s="168" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="168" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1" s="220" t="s">
+        <v>560</v>
+      </c>
+      <c r="E1" s="221" t="s">
+        <v>561</v>
+      </c>
+      <c r="F1" s="221" t="s">
+        <v>562</v>
+      </c>
+      <c r="G1" s="168" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1" s="168" t="s">
+        <v>564</v>
+      </c>
+      <c r="I1" s="168" t="s">
+        <v>566</v>
+      </c>
+      <c r="J1" s="168" t="s">
+        <v>567</v>
+      </c>
+      <c r="K1" s="222" t="s">
+        <v>568</v>
+      </c>
+      <c r="O1" s="89" t="s">
+        <v>565</v>
+      </c>
+      <c r="P1" s="89"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="94" t="s">
+        <v>569</v>
+      </c>
+      <c r="B2" s="95">
+        <v>19.148900000000001</v>
+      </c>
+      <c r="C2" s="95">
+        <f>B2*15.850372483753</f>
+        <v>303.51719765413787</v>
+      </c>
+      <c r="D2" s="217">
+        <v>5</v>
+      </c>
+      <c r="E2" s="218">
+        <f>(D2*25.4)/1000</f>
+        <v>0.127</v>
+      </c>
+      <c r="F2" s="218">
+        <v>5.0469999999999997</v>
+      </c>
+      <c r="G2" s="95">
+        <f>(F2*25.4)/1000</f>
+        <v>0.12819379999999997</v>
+      </c>
+      <c r="H2" s="95">
+        <v>4.87</v>
+      </c>
+      <c r="I2" s="95">
+        <f>(O2/100)*2989.06689999997*3.281</f>
+        <v>160.93497866694739</v>
+      </c>
+      <c r="J2" s="107">
+        <f>P2+(((H2^2)*1000)/2)/I2</f>
+        <v>75.684727199926442</v>
+      </c>
+      <c r="K2" s="108">
+        <f>I2*J2</f>
+        <v>12180.319957333895</v>
+      </c>
+      <c r="O2" s="89">
+        <v>1.641</v>
+      </c>
+      <c r="P2" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="94" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3" s="95">
+        <v>19.148900000000001</v>
+      </c>
+      <c r="C3" s="95">
+        <f t="shared" ref="C3:C23" si="0">B3*15.850372483753</f>
+        <v>303.51719765413787</v>
+      </c>
+      <c r="D3" s="217">
+        <v>5</v>
+      </c>
+      <c r="E3" s="218">
+        <f t="shared" ref="E3:E24" si="1">(D3*25.4)/1000</f>
+        <v>0.127</v>
+      </c>
+      <c r="F3" s="218">
+        <v>5.0469999999999997</v>
+      </c>
+      <c r="G3" s="95">
+        <f t="shared" ref="G3:G23" si="2">(F3*25.4)/1000</f>
+        <v>0.12819379999999997</v>
+      </c>
+      <c r="H3" s="95">
+        <v>4.87</v>
+      </c>
+      <c r="I3" s="95">
+        <f>(O3/100)*2989.06689999997*3.281</f>
+        <v>160.93497866694739</v>
+      </c>
+      <c r="J3" s="107">
+        <f>P3+(((((H3^2)*1000)/2)*((((G3^4)/(G4^4))-1)/I3)))</f>
+        <v>110.2919022058967</v>
+      </c>
+      <c r="K3" s="108">
+        <f>I3*J3</f>
+        <v>17749.824928643033</v>
+      </c>
+      <c r="O3" s="89">
+        <v>1.641</v>
+      </c>
+      <c r="P3" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="94" t="s">
+        <v>571</v>
+      </c>
+      <c r="B4" s="95">
+        <v>14.898300000000001</v>
+      </c>
+      <c r="C4" s="95">
+        <f t="shared" si="0"/>
+        <v>236.14360437469733</v>
+      </c>
+      <c r="D4" s="217">
+        <v>4</v>
+      </c>
+      <c r="E4" s="218">
+        <f t="shared" si="1"/>
+        <v>0.1016</v>
+      </c>
+      <c r="F4" s="95">
+        <v>4.0259999999999998</v>
+      </c>
+      <c r="G4" s="95">
+        <f t="shared" si="2"/>
+        <v>0.10226039999999999</v>
+      </c>
+      <c r="H4" s="95">
+        <v>5.95</v>
+      </c>
+      <c r="I4" s="95">
+        <f>(O4/100)*2989.06689999997*3.281</f>
+        <v>309.61104671026987</v>
+      </c>
+      <c r="J4" s="107">
+        <f>P4+((((H4^2)*1000)/2)*((((G4^4)/(G5^4))-1)/I4))</f>
+        <v>116.36315418531193</v>
+      </c>
+      <c r="K4" s="108">
+        <f>I4*J4</f>
+        <v>36027.317965822949</v>
+      </c>
+      <c r="O4" s="89">
+        <v>3.157</v>
+      </c>
+      <c r="P4" s="89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="94" t="s">
+        <v>572</v>
+      </c>
+      <c r="B5" s="95">
+        <v>6.78</v>
+      </c>
+      <c r="C5" s="95">
+        <f t="shared" si="0"/>
+        <v>107.46552543984535</v>
+      </c>
+      <c r="D5" s="217">
+        <v>3</v>
+      </c>
+      <c r="E5" s="218">
+        <f t="shared" si="1"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+      <c r="F5" s="218">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="G5" s="95">
+        <f t="shared" si="2"/>
+        <v>7.7927200000000002E-2</v>
+      </c>
+      <c r="H5" s="95">
+        <v>4.66</v>
+      </c>
+      <c r="I5" s="95">
+        <f>(O5/100)*2989.06689999997*3.281</f>
+        <v>273.91309897427425</v>
+      </c>
+      <c r="J5" s="107">
+        <f>P5+((((H5^2)*1000)/2)/I5)</f>
+        <v>43.639579270430431</v>
+      </c>
+      <c r="K5" s="108">
+        <f>I5*J5</f>
+        <v>11953.452395897097</v>
+      </c>
+      <c r="O5" s="89">
+        <v>2.7930000000000001</v>
+      </c>
+      <c r="P5" s="89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="94" t="s">
+        <v>573</v>
+      </c>
+      <c r="B6" s="95">
+        <v>6.78</v>
+      </c>
+      <c r="C6" s="95">
+        <f t="shared" si="0"/>
+        <v>107.46552543984535</v>
+      </c>
+      <c r="D6" s="217">
+        <v>3</v>
+      </c>
+      <c r="E6" s="218">
+        <f t="shared" si="1"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+      <c r="F6" s="218">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="G6" s="95">
+        <f t="shared" si="2"/>
+        <v>7.7927200000000002E-2</v>
+      </c>
+      <c r="H6" s="95">
+        <v>4.66</v>
+      </c>
+      <c r="I6" s="95">
+        <f>(O6/100)*2989.06689999997*3.281</f>
+        <v>273.91309897427425</v>
+      </c>
+      <c r="J6" s="107">
+        <f>P6+((((H6^2)*1000)/2)*(((G6^4)/(G7^4))/I6))</f>
+        <v>46.239579270430433</v>
+      </c>
+      <c r="K6" s="108">
+        <f>I6*J6</f>
+        <v>12665.62645323021</v>
+      </c>
+      <c r="O6" s="89">
+        <v>2.7930000000000001</v>
+      </c>
+      <c r="P6" s="89">
+        <f>6.15+0.45</f>
+        <v>6.6000000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="94" t="s">
+        <v>574</v>
+      </c>
+      <c r="B7" s="95">
+        <v>6.6</v>
+      </c>
+      <c r="C7" s="95">
+        <f t="shared" si="0"/>
+        <v>104.6124583927698</v>
+      </c>
+      <c r="D7" s="217">
+        <v>3</v>
+      </c>
+      <c r="E7" s="218">
+        <f t="shared" si="1"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+      <c r="F7" s="218">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="G7" s="95">
+        <f t="shared" si="2"/>
+        <v>7.7927200000000002E-2</v>
+      </c>
+      <c r="H7" s="95">
+        <v>4.54</v>
+      </c>
+      <c r="I7" s="95">
+        <f>(O7/100)*2989.06689999997*3.281</f>
+        <v>260.47733293078136</v>
+      </c>
+      <c r="J7" s="107">
+        <f>P7+((((H7^2)*1000)/2)*(((G7^4)/(G8^4))/I7))</f>
+        <v>40.015054985950123</v>
+      </c>
+      <c r="K7" s="108">
+        <f>I7*J7</f>
+        <v>10423.014799818853</v>
+      </c>
+      <c r="O7" s="89">
+        <v>2.6560000000000001</v>
+      </c>
+      <c r="P7" s="89">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="94" t="s">
+        <v>575</v>
+      </c>
+      <c r="B8" s="95">
+        <v>6.53</v>
+      </c>
+      <c r="C8" s="95">
+        <f t="shared" si="0"/>
+        <v>103.5029323189071</v>
+      </c>
+      <c r="D8" s="217">
+        <v>3</v>
+      </c>
+      <c r="E8" s="218">
+        <f t="shared" si="1"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+      <c r="F8" s="218">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="G8" s="95">
+        <f t="shared" si="2"/>
+        <v>7.7927200000000002E-2</v>
+      </c>
+      <c r="H8" s="95">
+        <v>4.49</v>
+      </c>
+      <c r="I8" s="95">
+        <f>(O8/100)*2989.06689999997*3.281</f>
+        <v>255.27955482636443</v>
+      </c>
+      <c r="J8" s="107">
+        <f>P8+((((H8^2)*1000)/2)*(((G8^4)/(G9^4))/I8))</f>
+        <v>42.336319250502576</v>
+      </c>
+      <c r="K8" s="108">
+        <f>I8*J8</f>
+        <v>10807.59673125514</v>
+      </c>
+      <c r="O8" s="89">
+        <v>2.6030000000000002</v>
+      </c>
+      <c r="P8" s="89">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="94" t="s">
+        <v>576</v>
+      </c>
+      <c r="B9" s="95">
+        <v>6.46</v>
+      </c>
+      <c r="C9" s="95">
+        <f t="shared" si="0"/>
+        <v>102.39340624504439</v>
+      </c>
+      <c r="D9" s="217">
+        <v>3</v>
+      </c>
+      <c r="E9" s="218">
+        <f t="shared" si="1"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+      <c r="F9" s="218">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="G9" s="95">
+        <f t="shared" si="2"/>
+        <v>7.7927200000000002E-2</v>
+      </c>
+      <c r="H9" s="95">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="I9" s="95">
+        <f>(O9/100)*2989.06689999997*3.281</f>
+        <v>250.27791929192551</v>
+      </c>
+      <c r="J9" s="107">
+        <f>P9+((((H9^2)*1000)/2)*(((G9^4)/(G10^4))/I9))</f>
+        <v>43.933418353030874</v>
+      </c>
+      <c r="K9" s="108">
+        <f>I9*J9</f>
+        <v>10995.56453277826</v>
+      </c>
+      <c r="O9" s="89">
+        <v>2.552</v>
+      </c>
+      <c r="P9" s="89">
+        <f>2.75+1.8</f>
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="94" t="s">
+        <v>577</v>
+      </c>
+      <c r="B10" s="95">
+        <v>5.68</v>
+      </c>
+      <c r="C10" s="95">
+        <f t="shared" si="0"/>
+        <v>90.030115707717044</v>
+      </c>
+      <c r="D10" s="217">
+        <v>3</v>
+      </c>
+      <c r="E10" s="218">
+        <f t="shared" si="1"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+      <c r="F10" s="218">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="G10" s="95">
+        <f t="shared" si="2"/>
+        <v>7.7927200000000002E-2</v>
+      </c>
+      <c r="H10" s="95">
+        <v>3.91</v>
+      </c>
+      <c r="I10" s="95">
+        <f>(O10/100)*2989.06689999997*3.281</f>
+        <v>196.92714025791003</v>
+      </c>
+      <c r="J10" s="107">
+        <f>P10+((((H10^2)*1000)/2)*(((G10^4)/(G11^4))/I10))</f>
+        <v>41.516640458947407</v>
+      </c>
+      <c r="K10" s="108">
+        <f>I10*J10</f>
+        <v>8175.7532786963584</v>
+      </c>
+      <c r="O10" s="89">
+        <v>2.008</v>
+      </c>
+      <c r="P10" s="89">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="94" t="s">
+        <v>578</v>
+      </c>
+      <c r="B11" s="95">
+        <v>4.96</v>
+      </c>
+      <c r="C11" s="95">
+        <f t="shared" si="0"/>
+        <v>78.61784751941488</v>
+      </c>
+      <c r="D11" s="217">
+        <v>3</v>
+      </c>
+      <c r="E11" s="218">
+        <f t="shared" si="1"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+      <c r="F11" s="218">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="G11" s="95">
+        <f t="shared" si="2"/>
+        <v>7.7927200000000002E-2</v>
+      </c>
+      <c r="H11" s="95">
+        <v>3.41</v>
+      </c>
+      <c r="I11" s="95">
+        <f>(O11/100)*2989.06689999997*3.281</f>
+        <v>153.18734715281647</v>
+      </c>
+      <c r="J11" s="107">
+        <f>P11+((((H11^2)*1000)/2)*(((G11^4)/(G12^4))/I11))</f>
+        <v>43.053852639017421</v>
+      </c>
+      <c r="K11" s="108">
+        <f>I11*J11</f>
+        <v>6595.3054704793649</v>
+      </c>
+      <c r="O11" s="89">
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="P11" s="89">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="94" t="s">
+        <v>579</v>
+      </c>
+      <c r="B12" s="95">
+        <v>4.82</v>
+      </c>
+      <c r="C12" s="95">
+        <f>B12*15.850372483753</f>
+        <v>76.398795371689474</v>
+      </c>
+      <c r="D12" s="217">
+        <v>3</v>
+      </c>
+      <c r="E12" s="218">
+        <f t="shared" si="1"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+      <c r="F12" s="218">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="G12" s="95">
+        <f t="shared" si="2"/>
+        <v>7.7927200000000002E-2</v>
+      </c>
+      <c r="H12" s="95">
+        <v>3.32</v>
+      </c>
+      <c r="I12" s="95">
+        <f>(O12/100)*2989.06689999997*3.281</f>
+        <v>145.34164435369652</v>
+      </c>
+      <c r="J12" s="107">
+        <f>P12+((((H12^2)*1000)/2)*(((G12^4)/(G13^4))/I12))</f>
+        <v>39.118932488394073</v>
+      </c>
+      <c r="K12" s="108">
+        <f>I12*J12</f>
+        <v>5685.6099732244356</v>
+      </c>
+      <c r="O12" s="89">
+        <v>1.482</v>
+      </c>
+      <c r="P12" s="89">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="94" t="s">
+        <v>580</v>
+      </c>
+      <c r="B13" s="95">
+        <v>4.68</v>
+      </c>
+      <c r="C13" s="95">
+        <f t="shared" si="0"/>
+        <v>74.179743223964039</v>
+      </c>
+      <c r="D13" s="217">
+        <v>3</v>
+      </c>
+      <c r="E13" s="218">
+        <f t="shared" si="1"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+      <c r="F13" s="218">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="G13" s="95">
+        <f t="shared" si="2"/>
+        <v>7.7927200000000002E-2</v>
+      </c>
+      <c r="H13" s="95">
+        <v>3.22</v>
+      </c>
+      <c r="I13" s="95">
+        <f>(O13/100)*2989.06689999997*3.281</f>
+        <v>137.39787026958763</v>
+      </c>
+      <c r="J13" s="107">
+        <f>P13+((((H13^2)*1000)/2)*(((G13^4)/(G14^4))/I13))</f>
+        <v>44.131298089468999</v>
+      </c>
+      <c r="K13" s="108">
+        <f>I13*J13</f>
+        <v>6063.5463697253617</v>
+      </c>
+      <c r="O13" s="89">
+        <v>1.401</v>
+      </c>
+      <c r="P13" s="89">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="94" t="s">
+        <v>581</v>
+      </c>
+      <c r="B14" s="95">
+        <v>4.57</v>
+      </c>
+      <c r="C14" s="95">
+        <f>B14*15.850372483753</f>
+        <v>72.436202250751222</v>
+      </c>
+      <c r="D14" s="217">
+        <v>3</v>
+      </c>
+      <c r="E14" s="218">
+        <f t="shared" si="1"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+      <c r="F14" s="218">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="G14" s="95">
+        <f t="shared" si="2"/>
+        <v>7.7927200000000002E-2</v>
+      </c>
+      <c r="H14" s="95">
+        <v>3.14</v>
+      </c>
+      <c r="I14" s="95">
+        <f>(O14/100)*2989.06689999997*3.281</f>
+        <v>131.70973574022565</v>
+      </c>
+      <c r="J14" s="107">
+        <f>P14+((((H14^2)*1000)/2)*(((G14^4)/(G15^4))/I14))</f>
+        <v>38.679275613483618</v>
+      </c>
+      <c r="K14" s="108">
+        <f>I14*J14</f>
+        <v>5094.4371696752814</v>
+      </c>
+      <c r="O14" s="89">
+        <v>1.343</v>
+      </c>
+      <c r="P14" s="89">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="94" t="s">
+        <v>582</v>
+      </c>
+      <c r="B15" s="95">
+        <v>4.47</v>
+      </c>
+      <c r="C15" s="95">
+        <f t="shared" si="0"/>
+        <v>70.851165002375907</v>
+      </c>
+      <c r="D15" s="217">
+        <v>3</v>
+      </c>
+      <c r="E15" s="218">
+        <f t="shared" si="1"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+      <c r="F15" s="218">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="G15" s="95">
+        <f t="shared" si="2"/>
+        <v>7.7927200000000002E-2</v>
+      </c>
+      <c r="H15" s="95">
+        <v>3.07</v>
+      </c>
+      <c r="I15" s="95">
+        <f>(O15/100)*2989.06689999997*3.281</f>
+        <v>126.41388635081971</v>
+      </c>
+      <c r="J15" s="107">
+        <f>P15+((((H15^2)*1000)/2)*(((G15^4)/(G16^4))/I15))</f>
+        <v>40.02794577031009</v>
+      </c>
+      <c r="K15" s="108">
+        <f>I15*J15</f>
+        <v>5060.0881874647539</v>
+      </c>
+      <c r="O15" s="89">
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="P15" s="89">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="94" t="s">
+        <v>583</v>
+      </c>
+      <c r="B16" s="95">
+        <v>4.25</v>
+      </c>
+      <c r="C16" s="95">
+        <f t="shared" si="0"/>
+        <v>67.364083055950246</v>
+      </c>
+      <c r="D16" s="217">
+        <v>3</v>
+      </c>
+      <c r="E16" s="218">
+        <f t="shared" si="1"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+      <c r="F16" s="218">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="G16" s="95">
+        <f t="shared" si="2"/>
+        <v>7.7927200000000002E-2</v>
+      </c>
+      <c r="H16" s="95">
+        <v>2.92</v>
+      </c>
+      <c r="I16" s="95">
+        <f>(O16/100)*2989.06689999997*3.281</f>
+        <v>115.23375986207384</v>
+      </c>
+      <c r="J16" s="107">
+        <f>P16+((((H16^2)*1000)/2)*(((G16^4)/(G17^4))/I16))</f>
+        <v>43.146102575345367</v>
+      </c>
+      <c r="K16" s="108">
+        <f>I16*J16</f>
+        <v>4971.8876231517534</v>
+      </c>
+      <c r="O16" s="89">
+        <v>1.175</v>
+      </c>
+      <c r="P16" s="89">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="94" t="s">
+        <v>584</v>
+      </c>
+      <c r="B17" s="95">
+        <v>4.18</v>
+      </c>
+      <c r="C17" s="95">
+        <f>B17*15.850372483753</f>
+        <v>66.254556982087536</v>
+      </c>
+      <c r="D17" s="217">
+        <v>3</v>
+      </c>
+      <c r="E17" s="218">
+        <f t="shared" si="1"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+      <c r="F17" s="218">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="G17" s="95">
+        <f t="shared" si="2"/>
+        <v>7.7927200000000002E-2</v>
+      </c>
+      <c r="H17" s="95">
+        <v>2.88</v>
+      </c>
+      <c r="I17" s="95">
+        <f>(O17/100)*2989.06689999997*3.281</f>
+        <v>111.80126488745887</v>
+      </c>
+      <c r="J17" s="107">
+        <f>P17+((((H17^2)*1000)/2)*(((G17^4)/(G18^4))/I17))</f>
+        <v>40.344392484509406</v>
+      </c>
+      <c r="K17" s="108">
+        <f>I17*J17</f>
+        <v>4510.5541108842408</v>
+      </c>
+      <c r="O17" s="89">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="P17" s="89">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="94" t="s">
+        <v>585</v>
+      </c>
+      <c r="B18" s="95">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C18" s="95">
+        <f t="shared" si="0"/>
+        <v>64.986527183387295</v>
+      </c>
+      <c r="D18" s="217">
+        <v>3</v>
+      </c>
+      <c r="E18" s="218">
+        <f t="shared" si="1"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+      <c r="F18" s="218">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="G18" s="95">
+        <f t="shared" si="2"/>
+        <v>7.7927200000000002E-2</v>
+      </c>
+      <c r="H18" s="95">
+        <v>2.82</v>
+      </c>
+      <c r="I18" s="95">
+        <f>(O18/100)*2989.06689999997*3.281</f>
+        <v>107.87841348789894</v>
+      </c>
+      <c r="J18" s="107">
+        <f>P18+((((H18^2)*1000)/2)*(((G18^4)/(G19^4))/I18))</f>
+        <v>37.608161623279919</v>
+      </c>
+      <c r="K18" s="108">
+        <f>I18*J18</f>
+        <v>4057.1088101159239</v>
+      </c>
+      <c r="O18" s="89">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P18" s="89">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="94" t="s">
+        <v>586</v>
+      </c>
+      <c r="B19" s="95">
+        <v>3.96</v>
+      </c>
+      <c r="C19" s="95">
+        <f t="shared" si="0"/>
+        <v>62.767475035661882</v>
+      </c>
+      <c r="D19" s="217">
+        <v>3</v>
+      </c>
+      <c r="E19" s="218">
+        <f t="shared" si="1"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+      <c r="F19" s="218">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="G19" s="95">
+        <f t="shared" si="2"/>
+        <v>7.7927200000000002E-2</v>
+      </c>
+      <c r="H19" s="95">
+        <v>2.72</v>
+      </c>
+      <c r="I19" s="95">
+        <f>(O19/100)*2989.06689999997*3.281</f>
+        <v>101.209566108647</v>
+      </c>
+      <c r="J19" s="107">
+        <f>P19+((((H19^2)*1000)/2)*(((G19^4)/(G20^4))/I19))</f>
+        <v>39.849904739527915</v>
+      </c>
+      <c r="K19" s="108">
+        <f>I19*J19</f>
+        <v>4033.1915681585356</v>
+      </c>
+      <c r="O19" s="89">
+        <v>1.032</v>
+      </c>
+      <c r="P19" s="89">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="94" t="s">
+        <v>587</v>
+      </c>
+      <c r="B20" s="95">
+        <v>3.82</v>
+      </c>
+      <c r="C20" s="95">
+        <f t="shared" si="0"/>
+        <v>60.548422887936461</v>
+      </c>
+      <c r="D20" s="217">
+        <v>3</v>
+      </c>
+      <c r="E20" s="218">
+        <f t="shared" si="1"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+      <c r="F20" s="218">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="G20" s="95">
+        <f t="shared" si="2"/>
+        <v>7.7927200000000002E-2</v>
+      </c>
+      <c r="H20" s="95">
+        <v>2.63</v>
+      </c>
+      <c r="I20" s="95">
+        <f>(O20/100)*2989.06689999997*3.281</f>
+        <v>94.736861299373047</v>
+      </c>
+      <c r="J20" s="107">
+        <f>P20+((((H20^2)*1000)/2)*(((G20^4)/(G21^4))/I20))</f>
+        <v>45.055853714861115</v>
+      </c>
+      <c r="K20" s="108">
+        <f>I20*J20</f>
+        <v>4268.4501641096394</v>
+      </c>
+      <c r="O20" s="89">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="P20" s="89">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="94" t="s">
+        <v>588</v>
+      </c>
+      <c r="B21" s="95">
+        <v>3.61</v>
+      </c>
+      <c r="C21" s="95">
+        <f t="shared" si="0"/>
+        <v>57.21984466634833</v>
+      </c>
+      <c r="D21" s="217">
+        <v>3</v>
+      </c>
+      <c r="E21" s="218">
+        <f t="shared" si="1"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+      <c r="F21" s="218">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="G21" s="95">
+        <f t="shared" si="2"/>
+        <v>7.7927200000000002E-2</v>
+      </c>
+      <c r="H21" s="95">
+        <v>2.48</v>
+      </c>
+      <c r="I21" s="95">
+        <f>(O21/100)*2989.06689999997*3.281</f>
+        <v>85.420089225418138</v>
+      </c>
+      <c r="J21" s="107">
+        <f>P21+((((H21^2)*1000)/2)*(((G21^4)/(G22^4))/I21))</f>
+        <v>39.350898944096684</v>
+      </c>
+      <c r="K21" s="108">
+        <f>I21*J21</f>
+        <v>3361.3572989051513</v>
+      </c>
+      <c r="O21" s="89">
+        <v>0.871</v>
+      </c>
+      <c r="P21" s="89">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="94" t="s">
+        <v>589</v>
+      </c>
+      <c r="B22" s="95">
+        <v>3.5</v>
+      </c>
+      <c r="C22" s="95">
+        <f>B22*15.850372483753</f>
+        <v>55.476303693135499</v>
+      </c>
+      <c r="D22" s="217">
+        <v>3</v>
+      </c>
+      <c r="E22" s="218">
+        <f t="shared" si="1"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+      <c r="F22" s="218">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="G22" s="95">
+        <f t="shared" si="2"/>
+        <v>7.7927200000000002E-2</v>
+      </c>
+      <c r="H22" s="95">
+        <v>2.41</v>
+      </c>
+      <c r="I22" s="95">
+        <f>(O22/100)*2989.06689999997*3.281</f>
+        <v>80.712667545946189</v>
+      </c>
+      <c r="J22" s="107">
+        <f>P22+((((H22^2)*1000)/2)*(((G22^4)/(G23^4))/I22))</f>
+        <v>42.03010186377314</v>
+      </c>
+      <c r="K22" s="108">
+        <f>I22*J22</f>
+        <v>3392.3616386529748</v>
+      </c>
+      <c r="O22" s="89">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="P22" s="89">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="97" t="s">
+        <v>590</v>
+      </c>
+      <c r="B23" s="98">
+        <v>3.43</v>
+      </c>
+      <c r="C23" s="98">
+        <f t="shared" si="0"/>
+        <v>54.366777619272796</v>
+      </c>
+      <c r="D23" s="223">
+        <v>3</v>
+      </c>
+      <c r="E23" s="224">
+        <f t="shared" si="1"/>
+        <v>7.619999999999999E-2</v>
+      </c>
+      <c r="F23" s="224">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="G23" s="98">
+        <f t="shared" si="2"/>
+        <v>7.7927200000000002E-2</v>
+      </c>
+      <c r="H23" s="98">
+        <v>2.36</v>
+      </c>
+      <c r="I23" s="98">
+        <f>(O23/100)*2989.06689999997*3.281</f>
+        <v>77.770528996276212</v>
+      </c>
+      <c r="J23" s="109">
+        <f>P23+((((H23^2)*1000)/2)/I23)</f>
+        <v>45.957908676220278</v>
+      </c>
+      <c r="K23" s="110">
+        <f>I23*J23</f>
+        <v>3574.1708693122032</v>
+      </c>
+      <c r="O23" s="89">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="P23" s="89">
+        <f>8.65+1.5</f>
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="89"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="213"/>
+      <c r="E24" s="216">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="216"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="41" t="s">
+        <v>592</v>
+      </c>
+      <c r="K24" s="41">
+        <f>SUM(K2:K23)</f>
+        <v>191646.54029733539</v>
+      </c>
+      <c r="O24" s="89"/>
+      <c r="P24" s="89"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -20645,8 +22264,8 @@
   </sheetPr>
   <dimension ref="A1:BC106"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O83" sqref="O83"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20680,17 +22299,17 @@
         <v>43</v>
       </c>
       <c r="T2" s="3"/>
-      <c r="Y2" s="194" t="s">
+      <c r="Y2" s="195" t="s">
         <v>297</v>
       </c>
-      <c r="Z2" s="194"/>
+      <c r="Z2" s="195"/>
       <c r="AB2" t="s">
         <v>298</v>
       </c>
-      <c r="AD2" s="194" t="s">
+      <c r="AD2" s="195" t="s">
         <v>318</v>
       </c>
-      <c r="AE2" s="194"/>
+      <c r="AE2" s="195"/>
       <c r="AG2" t="s">
         <v>543</v>
       </c>
@@ -20729,10 +22348,10 @@
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="195" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="194"/>
+      <c r="B3" s="195"/>
       <c r="S3" s="3" t="s">
         <v>44</v>
       </c>
@@ -23803,11 +25422,11 @@
       </c>
     </row>
     <row r="38" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A38" s="194" t="s">
+      <c r="A38" s="195" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="194"/>
-      <c r="C38" s="194"/>
+      <c r="B38" s="195"/>
+      <c r="C38" s="195"/>
       <c r="Y38" s="47">
         <f>0.15+0.01*3+0.007*('INFILTRATION LOAD'!D37-'INFILTRATION LOAD'!E37)</f>
         <v>0.26400000000000001</v>
@@ -23882,11 +25501,11 @@
       </c>
     </row>
     <row r="39" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A39" s="194" t="s">
+      <c r="A39" s="195" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="194"/>
-      <c r="C39" s="194"/>
+      <c r="B39" s="195"/>
+      <c r="C39" s="195"/>
       <c r="Y39" s="47">
         <f>0.15+0.01*3+0.007*('INFILTRATION LOAD'!D38-'INFILTRATION LOAD'!E38)</f>
         <v>0.26400000000000001</v>
@@ -27422,47 +29041,47 @@
     <mergeCell ref="AD2:AE2"/>
   </mergeCells>
   <conditionalFormatting sqref="AB4:AB11 AB13:AB83">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>$T$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4:AB83">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
       <formula>$K$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4:AI89">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
       <formula>$M$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AM106">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
       <formula>$H$197</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO3:AQ3">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>$H$197</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO4:AQ97">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>$H$258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW4:AW62">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:AX73">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>$I$65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY4:AY63">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>$J$180</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27490,34 +29109,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
     </row>
     <row r="2" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
@@ -27553,14 +29172,14 @@
       <c r="K3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="185" t="s">
+      <c r="O3" s="186" t="s">
         <v>539</v>
       </c>
-      <c r="P3" s="185"/>
-      <c r="Q3" s="185"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="185"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="186"/>
+      <c r="T3" s="186"/>
     </row>
     <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
@@ -27601,9 +29220,9 @@
         <f t="shared" ref="K4:K33" si="0">ABS((C4*F4)*(D4-E4))</f>
         <v>137.8656</v>
       </c>
-      <c r="O4" s="186"/>
-      <c r="P4" s="186"/>
-      <c r="Q4" s="186"/>
+      <c r="O4" s="187"/>
+      <c r="P4" s="187"/>
+      <c r="Q4" s="187"/>
       <c r="R4" s="132" t="s">
         <v>541</v>
       </c>
@@ -27653,11 +29272,11 @@
         <f t="shared" si="0"/>
         <v>41.359679999999997</v>
       </c>
-      <c r="O5" s="187" t="s">
+      <c r="O5" s="188" t="s">
         <v>160</v>
       </c>
-      <c r="P5" s="187"/>
-      <c r="Q5" s="187"/>
+      <c r="P5" s="188"/>
+      <c r="Q5" s="188"/>
       <c r="R5" s="6">
         <f>J35</f>
         <v>14479.770250000001</v>
@@ -27710,11 +29329,11 @@
         <f t="shared" si="0"/>
         <v>10.856916</v>
       </c>
-      <c r="O6" s="187" t="s">
+      <c r="O6" s="188" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="187"/>
-      <c r="Q6" s="187"/>
+      <c r="P6" s="188"/>
+      <c r="Q6" s="188"/>
       <c r="R6" s="6">
         <f>J69</f>
         <v>12911.636650000004</v>
@@ -27767,11 +29386,11 @@
         <f t="shared" si="0"/>
         <v>21.713832</v>
       </c>
-      <c r="O7" s="187" t="s">
+      <c r="O7" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="187"/>
-      <c r="Q7" s="187"/>
+      <c r="P7" s="188"/>
+      <c r="Q7" s="188"/>
       <c r="R7" s="6">
         <f>J100</f>
         <v>11242.204599999995</v>
@@ -27824,20 +29443,20 @@
         <f t="shared" si="0"/>
         <v>21.713832</v>
       </c>
-      <c r="O8" s="188" t="s">
+      <c r="O8" s="189" t="s">
         <v>540</v>
       </c>
-      <c r="P8" s="188"/>
-      <c r="Q8" s="188"/>
-      <c r="R8" s="189">
+      <c r="P8" s="189"/>
+      <c r="Q8" s="189"/>
+      <c r="R8" s="193">
         <f>SUM(R5:R7)</f>
         <v>38633.611499999999</v>
       </c>
-      <c r="S8" s="189">
+      <c r="S8" s="193">
         <f>SUM(S5:S7)</f>
         <v>5763.8469070000001</v>
       </c>
-      <c r="T8" s="189">
+      <c r="T8" s="193">
         <f>T5+T6+T7</f>
         <v>44397.458406999998</v>
       </c>
@@ -27881,12 +29500,12 @@
         <f t="shared" si="0"/>
         <v>56.422000000000004</v>
       </c>
-      <c r="O9" s="188"/>
-      <c r="P9" s="188"/>
-      <c r="Q9" s="188"/>
-      <c r="R9" s="190"/>
-      <c r="S9" s="190"/>
-      <c r="T9" s="190"/>
+      <c r="O9" s="189"/>
+      <c r="P9" s="189"/>
+      <c r="Q9" s="189"/>
+      <c r="R9" s="194"/>
+      <c r="S9" s="194"/>
+      <c r="T9" s="194"/>
     </row>
     <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
@@ -28876,10 +30495,10 @@
       <c r="K34" s="22"/>
     </row>
     <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H35" s="191" t="s">
+      <c r="H35" s="190" t="s">
         <v>122</v>
       </c>
-      <c r="I35" s="191"/>
+      <c r="I35" s="190"/>
       <c r="J35" s="41">
         <f>SUM(J4:J33)</f>
         <v>14479.770250000001</v>
@@ -28890,15 +30509,15 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H36" s="191" t="s">
+      <c r="H36" s="190" t="s">
         <v>166</v>
       </c>
-      <c r="I36" s="191"/>
-      <c r="J36" s="192">
+      <c r="I36" s="190"/>
+      <c r="J36" s="191">
         <f>J35+K35</f>
         <v>16506.69152</v>
       </c>
-      <c r="K36" s="193"/>
+      <c r="K36" s="192"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H37" s="3"/>
@@ -28907,19 +30526,19 @@
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A38" s="183" t="s">
+      <c r="A38" s="184" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="183"/>
-      <c r="C38" s="183"/>
-      <c r="D38" s="183"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="183"/>
-      <c r="G38" s="183"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="183"/>
-      <c r="J38" s="183"/>
-      <c r="K38" s="183"/>
+      <c r="B38" s="184"/>
+      <c r="C38" s="184"/>
+      <c r="D38" s="184"/>
+      <c r="E38" s="184"/>
+      <c r="F38" s="184"/>
+      <c r="G38" s="184"/>
+      <c r="H38" s="184"/>
+      <c r="I38" s="184"/>
+      <c r="J38" s="184"/>
+      <c r="K38" s="184"/>
     </row>
     <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="25" t="s">
@@ -30088,10 +31707,10 @@
       </c>
     </row>
     <row r="69" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H69" s="191" t="s">
+      <c r="H69" s="190" t="s">
         <v>122</v>
       </c>
-      <c r="I69" s="191"/>
+      <c r="I69" s="190"/>
       <c r="J69" s="41">
         <f>SUM(J40:J68)</f>
         <v>12911.636650000004</v>
@@ -30102,30 +31721,30 @@
       </c>
     </row>
     <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H70" s="191" t="s">
+      <c r="H70" s="190" t="s">
         <v>167</v>
       </c>
-      <c r="I70" s="191"/>
-      <c r="J70" s="192">
+      <c r="I70" s="190"/>
+      <c r="J70" s="191">
         <f>J69+K69</f>
         <v>15097.460593000003</v>
       </c>
-      <c r="K70" s="193"/>
+      <c r="K70" s="192"/>
     </row>
     <row r="72" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A72" s="183" t="s">
+      <c r="A72" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="183"/>
-      <c r="C72" s="183"/>
-      <c r="D72" s="183"/>
-      <c r="E72" s="183"/>
-      <c r="F72" s="183"/>
-      <c r="G72" s="183"/>
-      <c r="H72" s="183"/>
-      <c r="I72" s="183"/>
-      <c r="J72" s="183"/>
-      <c r="K72" s="183"/>
+      <c r="B72" s="184"/>
+      <c r="C72" s="184"/>
+      <c r="D72" s="184"/>
+      <c r="E72" s="184"/>
+      <c r="F72" s="184"/>
+      <c r="G72" s="184"/>
+      <c r="H72" s="184"/>
+      <c r="I72" s="184"/>
+      <c r="J72" s="184"/>
+      <c r="K72" s="184"/>
     </row>
     <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="25" t="s">
@@ -31203,10 +32822,10 @@
       </c>
     </row>
     <row r="100" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H100" s="191" t="s">
+      <c r="H100" s="190" t="s">
         <v>122</v>
       </c>
-      <c r="I100" s="191"/>
+      <c r="I100" s="190"/>
       <c r="J100" s="41">
         <f>SUM(J74:J99)</f>
         <v>11242.204599999995</v>
@@ -31217,18 +32836,27 @@
       </c>
     </row>
     <row r="101" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H101" s="191" t="s">
+      <c r="H101" s="190" t="s">
         <v>167</v>
       </c>
-      <c r="I101" s="191"/>
-      <c r="J101" s="192">
+      <c r="I101" s="190"/>
+      <c r="J101" s="191">
         <f>J100+K100</f>
         <v>12793.306293999995</v>
       </c>
-      <c r="K101" s="193"/>
+      <c r="K101" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O8:Q9"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="R8:R9"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="H70:I70"/>
@@ -31242,18 +32870,9 @@
     <mergeCell ref="H100:I100"/>
     <mergeCell ref="J70:K70"/>
     <mergeCell ref="J36:K36"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O8:Q9"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="R8:R9"/>
   </mergeCells>
   <conditionalFormatting sqref="A73:K99">
-    <cfRule type="cellIs" dxfId="350" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31301,32 +32920,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
       <c r="J1" s="126"/>
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
       <c r="J2" s="106"/>
       <c r="K2" s="106"/>
     </row>
@@ -31358,14 +32977,14 @@
       <c r="I3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="185" t="s">
+      <c r="L3" s="186" t="s">
         <v>539</v>
       </c>
-      <c r="M3" s="185"/>
-      <c r="N3" s="185"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="185"/>
-      <c r="Q3" s="185"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -31399,9 +33018,9 @@
         <f t="shared" ref="I4:I35" si="1">ABS(3000*C4*(F4-G4))</f>
         <v>291.35822808945596</v>
       </c>
-      <c r="L4" s="186"/>
-      <c r="M4" s="186"/>
-      <c r="N4" s="186"/>
+      <c r="L4" s="187"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="187"/>
       <c r="O4" s="132" t="s">
         <v>541</v>
       </c>
@@ -31444,11 +33063,11 @@
         <f t="shared" si="1"/>
         <v>82.010154749951994</v>
       </c>
-      <c r="L5" s="187" t="s">
+      <c r="L5" s="188" t="s">
         <v>160</v>
       </c>
-      <c r="M5" s="187"/>
-      <c r="N5" s="187"/>
+      <c r="M5" s="188"/>
+      <c r="N5" s="188"/>
       <c r="O5" s="6">
         <f>H73</f>
         <v>6335.2156108951121</v>
@@ -31494,11 +33113,11 @@
         <f t="shared" si="1"/>
         <v>58.418394054637488</v>
       </c>
-      <c r="L6" s="187" t="s">
+      <c r="L6" s="188" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="187"/>
-      <c r="N6" s="187"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="188"/>
       <c r="O6" s="6">
         <f>H158</f>
         <v>5646.4769823865836</v>
@@ -31544,11 +33163,11 @@
         <f t="shared" si="1"/>
         <v>138.58842619511998</v>
       </c>
-      <c r="L7" s="187" t="s">
+      <c r="L7" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="187"/>
-      <c r="N7" s="187"/>
+      <c r="M7" s="188"/>
+      <c r="N7" s="188"/>
       <c r="O7" s="6">
         <f>H237</f>
         <v>5262.10371996711</v>
@@ -31594,20 +33213,20 @@
         <f t="shared" si="1"/>
         <v>21.203990166937498</v>
       </c>
-      <c r="L8" s="188" t="s">
+      <c r="L8" s="189" t="s">
         <v>540</v>
       </c>
-      <c r="M8" s="188"/>
-      <c r="N8" s="188"/>
-      <c r="O8" s="189">
+      <c r="M8" s="189"/>
+      <c r="N8" s="189"/>
+      <c r="O8" s="193">
         <f>SUM(O5:O7)</f>
         <v>17243.796313248808</v>
       </c>
-      <c r="P8" s="189">
+      <c r="P8" s="193">
         <f>SUM(P5:P7)</f>
         <v>36486.734712379381</v>
       </c>
-      <c r="Q8" s="189">
+      <c r="Q8" s="193">
         <f>Q5+Q6+Q7</f>
         <v>53730.531025628181</v>
       </c>
@@ -31644,12 +33263,12 @@
         <f t="shared" si="1"/>
         <v>136.74499963482148</v>
       </c>
-      <c r="L9" s="188"/>
-      <c r="M9" s="188"/>
-      <c r="N9" s="188"/>
-      <c r="O9" s="190"/>
-      <c r="P9" s="190"/>
-      <c r="Q9" s="190"/>
+      <c r="L9" s="189"/>
+      <c r="M9" s="189"/>
+      <c r="N9" s="189"/>
+      <c r="O9" s="194"/>
+      <c r="P9" s="194"/>
+      <c r="Q9" s="194"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
@@ -32099,8 +33718,8 @@
         <f t="shared" si="1"/>
         <v>98.622581446751994</v>
       </c>
-      <c r="P22" s="194"/>
-      <c r="Q22" s="194"/>
+      <c r="P22" s="195"/>
+      <c r="Q22" s="195"/>
     </row>
     <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
@@ -33773,10 +35392,10 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F73" s="191" t="s">
+      <c r="F73" s="190" t="s">
         <v>333</v>
       </c>
-      <c r="G73" s="191"/>
+      <c r="G73" s="190"/>
       <c r="H73" s="41">
         <f>SUM(H4:H72)</f>
         <v>6335.2156108951121</v>
@@ -33787,28 +35406,28 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F74" s="191" t="s">
+      <c r="F74" s="190" t="s">
         <v>161</v>
       </c>
-      <c r="G74" s="191"/>
-      <c r="H74" s="192">
+      <c r="G74" s="190"/>
+      <c r="H74" s="191">
         <f>H73+I73</f>
         <v>19798.437354162186</v>
       </c>
-      <c r="I74" s="193"/>
+      <c r="I74" s="192"/>
     </row>
     <row r="76" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A76" s="195" t="s">
+      <c r="A76" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="B76" s="195"/>
-      <c r="C76" s="195"/>
-      <c r="D76" s="195"/>
-      <c r="E76" s="195"/>
-      <c r="F76" s="195"/>
-      <c r="G76" s="195"/>
-      <c r="H76" s="195"/>
-      <c r="I76" s="195"/>
+      <c r="B76" s="196"/>
+      <c r="C76" s="196"/>
+      <c r="D76" s="196"/>
+      <c r="E76" s="196"/>
+      <c r="F76" s="196"/>
+      <c r="G76" s="196"/>
+      <c r="H76" s="196"/>
+      <c r="I76" s="196"/>
     </row>
     <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="38" t="s">
@@ -36568,10 +38187,10 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F158" s="196" t="s">
+      <c r="F158" s="197" t="s">
         <v>122</v>
       </c>
-      <c r="G158" s="196"/>
+      <c r="G158" s="197"/>
       <c r="H158" s="147">
         <f>SUM(H78:H157)</f>
         <v>5646.4769823865836</v>
@@ -36582,28 +38201,28 @@
       </c>
     </row>
     <row r="159" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F159" s="191" t="s">
+      <c r="F159" s="190" t="s">
         <v>167</v>
       </c>
-      <c r="G159" s="191"/>
-      <c r="H159" s="192">
+      <c r="G159" s="190"/>
+      <c r="H159" s="191">
         <f>I158+H158</f>
         <v>17350.05826720711</v>
       </c>
-      <c r="I159" s="193"/>
+      <c r="I159" s="192"/>
     </row>
     <row r="161" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A161" s="183" t="s">
+      <c r="A161" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="B161" s="183"/>
-      <c r="C161" s="183"/>
-      <c r="D161" s="183"/>
-      <c r="E161" s="183"/>
-      <c r="F161" s="183"/>
-      <c r="G161" s="183"/>
-      <c r="H161" s="183"/>
-      <c r="I161" s="183"/>
+      <c r="B161" s="184"/>
+      <c r="C161" s="184"/>
+      <c r="D161" s="184"/>
+      <c r="E161" s="184"/>
+      <c r="F161" s="184"/>
+      <c r="G161" s="184"/>
+      <c r="H161" s="184"/>
+      <c r="I161" s="184"/>
       <c r="J161" s="106"/>
       <c r="K161" s="106"/>
     </row>
@@ -39157,10 +40776,10 @@
       </c>
     </row>
     <row r="237" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F237" s="191" t="s">
+      <c r="F237" s="190" t="s">
         <v>333</v>
       </c>
-      <c r="G237" s="191"/>
+      <c r="G237" s="190"/>
       <c r="H237" s="41">
         <f>SUM(H163:H232)</f>
         <v>5262.10371996711</v>
@@ -39171,18 +40790,25 @@
       </c>
     </row>
     <row r="238" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F238" s="191" t="s">
+      <c r="F238" s="190" t="s">
         <v>161</v>
       </c>
-      <c r="G238" s="191"/>
-      <c r="H238" s="192">
+      <c r="G238" s="190"/>
+      <c r="H238" s="191">
         <f>I237+H237</f>
         <v>16582.035404258892</v>
       </c>
-      <c r="I238" s="193"/>
+      <c r="I238" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N9"/>
     <mergeCell ref="F238:G238"/>
     <mergeCell ref="F237:G237"/>
     <mergeCell ref="F73:G73"/>
@@ -39199,13 +40825,6 @@
     <mergeCell ref="H74:I74"/>
     <mergeCell ref="L3:Q3"/>
     <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:N9"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39243,29 +40862,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
         <v>533</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
       <c r="I1" s="127"/>
     </row>
     <row r="2" spans="1:17" s="118" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="183" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
       <c r="I2" s="103"/>
       <c r="J2" s="103"/>
       <c r="K2" s="103"/>
@@ -39295,14 +40914,14 @@
       <c r="H3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="197" t="s">
+      <c r="L3" s="199" t="s">
         <v>539</v>
       </c>
-      <c r="M3" s="197"/>
-      <c r="N3" s="197"/>
-      <c r="O3" s="197"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
     </row>
     <row r="4" spans="1:17" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="60" t="s">
@@ -39331,9 +40950,9 @@
         <f>C4*E4</f>
         <v>11.327999999999999</v>
       </c>
-      <c r="L4" s="198"/>
-      <c r="M4" s="198"/>
-      <c r="N4" s="198"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="200"/>
       <c r="O4" s="133" t="s">
         <v>541</v>
       </c>
@@ -39371,11 +40990,11 @@
         <f t="shared" ref="H5:H44" si="1">C5*E5</f>
         <v>365.50400000000002</v>
       </c>
-      <c r="L5" s="199" t="s">
+      <c r="L5" s="201" t="s">
         <v>160</v>
       </c>
-      <c r="M5" s="199"/>
-      <c r="N5" s="199"/>
+      <c r="M5" s="201"/>
+      <c r="N5" s="201"/>
       <c r="O5" s="82">
         <f>G45</f>
         <v>5447.2492799999991</v>
@@ -39416,11 +41035,11 @@
         <f t="shared" si="1"/>
         <v>11.327999999999999</v>
       </c>
-      <c r="L6" s="199" t="s">
+      <c r="L6" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="199"/>
-      <c r="N6" s="199"/>
+      <c r="M6" s="201"/>
+      <c r="N6" s="201"/>
       <c r="O6" s="82">
         <f>G90</f>
         <v>3484.8253440000008</v>
@@ -39461,11 +41080,11 @@
         <f t="shared" si="1"/>
         <v>48.128</v>
       </c>
-      <c r="L7" s="199" t="s">
+      <c r="L7" s="201" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="199"/>
-      <c r="N7" s="199"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="201"/>
       <c r="O7" s="82">
         <f>G128</f>
         <v>2187.573695999999</v>
@@ -39506,20 +41125,20 @@
         <f t="shared" si="1"/>
         <v>48.128</v>
       </c>
-      <c r="L8" s="188" t="s">
+      <c r="L8" s="189" t="s">
         <v>540</v>
       </c>
-      <c r="M8" s="188"/>
-      <c r="N8" s="188"/>
-      <c r="O8" s="189">
+      <c r="M8" s="189"/>
+      <c r="N8" s="189"/>
+      <c r="O8" s="193">
         <f>SUM(O5:O7)</f>
         <v>11119.64832</v>
       </c>
-      <c r="P8" s="189">
+      <c r="P8" s="193">
         <f>SUM(P5:P7)</f>
         <v>5615.9839999999995</v>
       </c>
-      <c r="Q8" s="189">
+      <c r="Q8" s="193">
         <f>Q5+Q6+Q7</f>
         <v>16735.632319999997</v>
       </c>
@@ -39551,12 +41170,12 @@
         <f t="shared" si="1"/>
         <v>48.128</v>
       </c>
-      <c r="L9" s="188"/>
-      <c r="M9" s="188"/>
-      <c r="N9" s="188"/>
-      <c r="O9" s="190"/>
-      <c r="P9" s="190"/>
-      <c r="Q9" s="190"/>
+      <c r="L9" s="189"/>
+      <c r="M9" s="189"/>
+      <c r="N9" s="189"/>
+      <c r="O9" s="194"/>
+      <c r="P9" s="194"/>
+      <c r="Q9" s="194"/>
     </row>
     <row r="10" spans="1:17" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="60" t="s">
@@ -40555,10 +42174,10 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E45" s="200" t="s">
+      <c r="E45" s="198" t="s">
         <v>333</v>
       </c>
-      <c r="F45" s="200"/>
+      <c r="F45" s="198"/>
       <c r="G45" s="123">
         <f>SUM(G4:G44)</f>
         <v>5447.2492799999991</v>
@@ -40569,15 +42188,15 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E46" s="200" t="s">
+      <c r="E46" s="198" t="s">
         <v>161</v>
       </c>
-      <c r="F46" s="200"/>
-      <c r="G46" s="200">
+      <c r="F46" s="198"/>
+      <c r="G46" s="198">
         <f>G45+H45</f>
         <v>8198.3852799999986</v>
       </c>
-      <c r="H46" s="200"/>
+      <c r="H46" s="198"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E47" s="49"/>
@@ -40586,16 +42205,16 @@
       <c r="H47" s="49"/>
     </row>
     <row r="48" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A48" s="195" t="s">
+      <c r="A48" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="195"/>
-      <c r="C48" s="195"/>
-      <c r="D48" s="195"/>
-      <c r="E48" s="195"/>
-      <c r="F48" s="195"/>
-      <c r="G48" s="195"/>
-      <c r="H48" s="195"/>
+      <c r="B48" s="196"/>
+      <c r="C48" s="196"/>
+      <c r="D48" s="196"/>
+      <c r="E48" s="196"/>
+      <c r="F48" s="196"/>
+      <c r="G48" s="196"/>
+      <c r="H48" s="196"/>
       <c r="I48" s="125"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -41747,10 +43366,10 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E90" s="200" t="s">
+      <c r="E90" s="198" t="s">
         <v>333</v>
       </c>
-      <c r="F90" s="200"/>
+      <c r="F90" s="198"/>
       <c r="G90" s="72">
         <f>SUM(G50:G89)</f>
         <v>3484.8253440000008</v>
@@ -41761,15 +43380,15 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E91" s="200" t="s">
+      <c r="E91" s="198" t="s">
         <v>161</v>
       </c>
-      <c r="F91" s="200"/>
-      <c r="G91" s="200">
+      <c r="F91" s="198"/>
+      <c r="G91" s="198">
         <f>G90+H90</f>
         <v>5244.8381440000012</v>
       </c>
-      <c r="H91" s="200"/>
+      <c r="H91" s="198"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E92" s="49"/>
@@ -41778,16 +43397,16 @@
       <c r="H92" s="49"/>
     </row>
     <row r="93" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A93" s="183" t="s">
+      <c r="A93" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="B93" s="183"/>
-      <c r="C93" s="183"/>
-      <c r="D93" s="183"/>
-      <c r="E93" s="183"/>
-      <c r="F93" s="183"/>
-      <c r="G93" s="183"/>
-      <c r="H93" s="183"/>
+      <c r="B93" s="184"/>
+      <c r="C93" s="184"/>
+      <c r="D93" s="184"/>
+      <c r="E93" s="184"/>
+      <c r="F93" s="184"/>
+      <c r="G93" s="184"/>
+      <c r="H93" s="184"/>
       <c r="I93" s="106"/>
     </row>
     <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -42749,10 +44368,10 @@
       </c>
     </row>
     <row r="128" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E128" s="200" t="s">
+      <c r="E128" s="198" t="s">
         <v>333</v>
       </c>
-      <c r="F128" s="200"/>
+      <c r="F128" s="198"/>
       <c r="G128" s="72">
         <f>SUM(G95:G127)</f>
         <v>2187.573695999999</v>
@@ -42763,18 +44382,27 @@
       </c>
     </row>
     <row r="129" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E129" s="200" t="s">
+      <c r="E129" s="198" t="s">
         <v>161</v>
       </c>
-      <c r="F129" s="200"/>
-      <c r="G129" s="200">
+      <c r="F129" s="198"/>
+      <c r="G129" s="198">
         <f>G128+H128</f>
         <v>3292.408895999999</v>
       </c>
-      <c r="H129" s="200"/>
+      <c r="H129" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
     <mergeCell ref="E129:F129"/>
     <mergeCell ref="G129:H129"/>
     <mergeCell ref="E128:F128"/>
@@ -42788,15 +44416,6 @@
     <mergeCell ref="E91:F91"/>
     <mergeCell ref="G91:H91"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="L8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -42829,48 +44448,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="118" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
         <v>532</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
     </row>
     <row r="2" spans="1:17" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="202" t="s">
         <v>425</v>
       </c>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="L3" s="185" t="s">
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="L3" s="186" t="s">
         <v>539</v>
       </c>
-      <c r="M3" s="185"/>
-      <c r="N3" s="185"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="185"/>
-      <c r="Q3" s="185"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
@@ -42898,14 +44517,14 @@
         <v>10</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="186"/>
-      <c r="N4" s="186"/>
-      <c r="O4" s="186" t="s">
+      <c r="L4" s="187"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="187"/>
+      <c r="O4" s="187" t="s">
         <v>430</v>
       </c>
-      <c r="P4" s="186"/>
-      <c r="Q4" s="186"/>
+      <c r="P4" s="187"/>
+      <c r="Q4" s="187"/>
     </row>
     <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="45" t="s">
@@ -42934,16 +44553,16 @@
         <f>B5*C5*G5</f>
         <v>1159.3501026231174</v>
       </c>
-      <c r="L5" s="187" t="s">
+      <c r="L5" s="188" t="s">
         <v>160</v>
       </c>
-      <c r="M5" s="187"/>
-      <c r="N5" s="187"/>
-      <c r="O5" s="187">
+      <c r="M5" s="188"/>
+      <c r="N5" s="188"/>
+      <c r="O5" s="188">
         <v>0</v>
       </c>
-      <c r="P5" s="187"/>
-      <c r="Q5" s="187"/>
+      <c r="P5" s="188"/>
+      <c r="Q5" s="188"/>
     </row>
     <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
@@ -42972,17 +44591,17 @@
         <f t="shared" ref="H6:H46" si="1">B6*C6*G6</f>
         <v>1158.7784926836441</v>
       </c>
-      <c r="L6" s="187" t="s">
+      <c r="L6" s="188" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="187"/>
-      <c r="N6" s="187"/>
-      <c r="O6" s="187">
+      <c r="M6" s="188"/>
+      <c r="N6" s="188"/>
+      <c r="O6" s="188">
         <f>I87</f>
         <v>0</v>
       </c>
-      <c r="P6" s="187"/>
-      <c r="Q6" s="187"/>
+      <c r="P6" s="188"/>
+      <c r="Q6" s="188"/>
     </row>
     <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="45" t="s">
@@ -43011,17 +44630,17 @@
         <f t="shared" si="1"/>
         <v>1265.2772037143795</v>
       </c>
-      <c r="L7" s="187" t="s">
+      <c r="L7" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="187"/>
-      <c r="N7" s="187"/>
-      <c r="O7" s="187">
+      <c r="M7" s="188"/>
+      <c r="N7" s="188"/>
+      <c r="O7" s="188">
         <f>H49</f>
         <v>33330.762702411113</v>
       </c>
-      <c r="P7" s="187"/>
-      <c r="Q7" s="187"/>
+      <c r="P7" s="188"/>
+      <c r="Q7" s="188"/>
     </row>
     <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
@@ -43050,17 +44669,17 @@
         <f t="shared" si="1"/>
         <v>1265.2772037143795</v>
       </c>
-      <c r="L8" s="188" t="s">
+      <c r="L8" s="189" t="s">
         <v>540</v>
       </c>
-      <c r="M8" s="188"/>
-      <c r="N8" s="188"/>
-      <c r="O8" s="201">
+      <c r="M8" s="189"/>
+      <c r="N8" s="189"/>
+      <c r="O8" s="203">
         <f>O5+O6+O7</f>
         <v>33330.762702411113</v>
       </c>
-      <c r="P8" s="202"/>
-      <c r="Q8" s="203"/>
+      <c r="P8" s="204"/>
+      <c r="Q8" s="205"/>
     </row>
     <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="45" t="s">
@@ -43089,12 +44708,12 @@
         <f t="shared" si="1"/>
         <v>1158.7784926836441</v>
       </c>
-      <c r="L9" s="188"/>
-      <c r="M9" s="188"/>
-      <c r="N9" s="188"/>
-      <c r="O9" s="204"/>
-      <c r="P9" s="205"/>
-      <c r="Q9" s="206"/>
+      <c r="L9" s="189"/>
+      <c r="M9" s="189"/>
+      <c r="N9" s="189"/>
+      <c r="O9" s="206"/>
+      <c r="P9" s="207"/>
+      <c r="Q9" s="208"/>
     </row>
     <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="45" t="s">
@@ -44518,12 +46137,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
     <mergeCell ref="L8:N9"/>
     <mergeCell ref="O8:Q9"/>
     <mergeCell ref="L4:N4"/>
@@ -44532,6 +46145,12 @@
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -44560,28 +46179,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
         <v>536</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
       <c r="H1" s="131"/>
       <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:16" s="118" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="183" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
       <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -44606,14 +46225,14 @@
       <c r="G3" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="K3" s="185" t="s">
+      <c r="K3" s="186" t="s">
         <v>539</v>
       </c>
-      <c r="L3" s="185"/>
-      <c r="M3" s="185"/>
-      <c r="N3" s="185"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="185"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="186"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="81" t="s">
@@ -44643,14 +46262,14 @@
         <f>Table14[[#This Row],[A]]+D5</f>
         <v>33.799999999999997</v>
       </c>
-      <c r="K4" s="186"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="186"/>
-      <c r="N4" s="186" t="s">
+      <c r="K4" s="187"/>
+      <c r="L4" s="187"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="187" t="s">
         <v>430</v>
       </c>
-      <c r="O4" s="186"/>
-      <c r="P4" s="186"/>
+      <c r="O4" s="187"/>
+      <c r="P4" s="187"/>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="81"/>
@@ -44674,17 +46293,17 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>47.230559999999997</v>
       </c>
-      <c r="K5" s="187" t="s">
+      <c r="K5" s="188" t="s">
         <v>160</v>
       </c>
-      <c r="L5" s="187"/>
-      <c r="M5" s="187"/>
-      <c r="N5" s="187">
+      <c r="L5" s="188"/>
+      <c r="M5" s="188"/>
+      <c r="N5" s="188">
         <f>G90</f>
         <v>18554.539067999998</v>
       </c>
-      <c r="O5" s="187"/>
-      <c r="P5" s="187"/>
+      <c r="O5" s="188"/>
+      <c r="P5" s="188"/>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="81" t="s">
@@ -44714,17 +46333,17 @@
         <f>Table14[[#This Row],[A]]</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="K6" s="187" t="s">
+      <c r="K6" s="188" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="187"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="187">
+      <c r="L6" s="188"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="188">
         <f>G198</f>
         <v>19890.591177600007</v>
       </c>
-      <c r="O6" s="187"/>
-      <c r="P6" s="187"/>
+      <c r="O6" s="188"/>
+      <c r="P6" s="188"/>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="81" t="s">
@@ -44754,17 +46373,17 @@
         <f>Table14[[#This Row],[A]]+D8</f>
         <v>23.6</v>
       </c>
-      <c r="K7" s="187" t="s">
+      <c r="K7" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="187"/>
-      <c r="M7" s="187"/>
-      <c r="N7" s="187">
+      <c r="L7" s="188"/>
+      <c r="M7" s="188"/>
+      <c r="N7" s="188">
         <f>G296</f>
         <v>17107.397424000003</v>
       </c>
-      <c r="O7" s="187"/>
-      <c r="P7" s="187"/>
+      <c r="O7" s="188"/>
+      <c r="P7" s="188"/>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="81"/>
@@ -44788,17 +46407,17 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>47.230559999999997</v>
       </c>
-      <c r="K8" s="188" t="s">
+      <c r="K8" s="189" t="s">
         <v>540</v>
       </c>
-      <c r="L8" s="188"/>
-      <c r="M8" s="188"/>
-      <c r="N8" s="201">
+      <c r="L8" s="189"/>
+      <c r="M8" s="189"/>
+      <c r="N8" s="203">
         <f>N5+N6+N7</f>
         <v>55552.527669600007</v>
       </c>
-      <c r="O8" s="202"/>
-      <c r="P8" s="203"/>
+      <c r="O8" s="204"/>
+      <c r="P8" s="205"/>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="81" t="s">
@@ -44828,12 +46447,12 @@
         <f>Table14[[#This Row],[A]]+D10</f>
         <v>38.28</v>
       </c>
-      <c r="K9" s="188"/>
-      <c r="L9" s="188"/>
-      <c r="M9" s="188"/>
-      <c r="N9" s="204"/>
-      <c r="O9" s="205"/>
-      <c r="P9" s="206"/>
+      <c r="K9" s="189"/>
+      <c r="L9" s="189"/>
+      <c r="M9" s="189"/>
+      <c r="N9" s="206"/>
+      <c r="O9" s="207"/>
+      <c r="P9" s="208"/>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="81"/>
@@ -44940,7 +46559,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>394.13087999999999</v>
       </c>
-      <c r="H13" s="194">
+      <c r="H13" s="195">
         <f>Table14[[#This Row],[A]]+D14+D15+D16</f>
         <v>61.92</v>
       </c>
@@ -44967,7 +46586,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>25.515359999999994</v>
       </c>
-      <c r="H14" s="194"/>
+      <c r="H14" s="195"/>
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="81"/>
@@ -44991,7 +46610,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>41.910336000000001</v>
       </c>
-      <c r="H15" s="194"/>
+      <c r="H15" s="195"/>
     </row>
     <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="81"/>
@@ -45015,7 +46634,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>60.802559999999993</v>
       </c>
-      <c r="H16" s="194"/>
+      <c r="H16" s="195"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="81" t="s">
@@ -45099,7 +46718,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>465.79104000000007</v>
       </c>
-      <c r="H19" s="194">
+      <c r="H19" s="195">
         <f>Table14[[#This Row],[A]]+D20</f>
         <v>34.6</v>
       </c>
@@ -45126,7 +46745,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>13.843440000000001</v>
       </c>
-      <c r="H20" s="194"/>
+      <c r="H20" s="195"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="81" t="s">
@@ -46692,7 +48311,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>261.885312</v>
       </c>
-      <c r="H78" s="194">
+      <c r="H78" s="195">
         <f>Table14[[#This Row],[Ti]]+E79</f>
         <v>48</v>
       </c>
@@ -46719,7 +48338,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>116.44775999999999</v>
       </c>
-      <c r="H79" s="194"/>
+      <c r="H79" s="195"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="81" t="s">
@@ -46745,7 +48364,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>1469.6304480000003</v>
       </c>
-      <c r="H80" s="194">
+      <c r="H80" s="195">
         <f>Table14[[#This Row],[A]]+D81+D82+D83+D84</f>
         <v>141.44000000000003</v>
       </c>
@@ -46772,7 +48391,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>49.347791999999998</v>
       </c>
-      <c r="H81" s="194"/>
+      <c r="H81" s="195"/>
     </row>
     <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="81"/>
@@ -46796,7 +48415,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>24.918191999999998</v>
       </c>
-      <c r="H82" s="194"/>
+      <c r="H82" s="195"/>
     </row>
     <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="81"/>
@@ -46820,7 +48439,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>68.240015999999997</v>
       </c>
-      <c r="H83" s="194"/>
+      <c r="H83" s="195"/>
     </row>
     <row r="84" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="81"/>
@@ -46844,7 +48463,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>32.572800000000001</v>
       </c>
-      <c r="H84" s="194"/>
+      <c r="H84" s="195"/>
     </row>
     <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="81" t="s">
@@ -46870,7 +48489,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>192.88526400000001</v>
       </c>
-      <c r="H85" s="208">
+      <c r="H85" s="209">
         <f>Table14[[#This Row],[A]]+D86+D87</f>
         <v>24.76</v>
       </c>
@@ -46897,7 +48516,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>20.520864</v>
       </c>
-      <c r="H86" s="208"/>
+      <c r="H86" s="209"/>
     </row>
     <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="81"/>
@@ -46921,7 +48540,7 @@
         <f>ABS(Table14[[#This Row],[U]]*Table14[[#This Row],[A]]*(Table14[[#This Row],[Ti2]]-Table14[[#This Row],[Ti]]))</f>
         <v>73.831679999999992</v>
       </c>
-      <c r="H87" s="208"/>
+      <c r="H87" s="209"/>
     </row>
     <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="81" t="s">
@@ -46991,15 +48610,15 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="182" t="s">
+      <c r="A93" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="B93" s="182"/>
-      <c r="C93" s="182"/>
-      <c r="D93" s="182"/>
-      <c r="E93" s="182"/>
-      <c r="F93" s="182"/>
-      <c r="G93" s="182"/>
+      <c r="B93" s="183"/>
+      <c r="C93" s="183"/>
+      <c r="D93" s="183"/>
+      <c r="E93" s="183"/>
+      <c r="F93" s="183"/>
+      <c r="G93" s="183"/>
       <c r="H93" s="103"/>
       <c r="I93" s="103"/>
     </row>
@@ -49541,15 +51160,15 @@
       </c>
     </row>
     <row r="200" spans="1:9" s="118" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A200" s="183" t="s">
+      <c r="A200" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="B200" s="183"/>
-      <c r="C200" s="183"/>
-      <c r="D200" s="183"/>
-      <c r="E200" s="183"/>
-      <c r="F200" s="183"/>
-      <c r="G200" s="183"/>
+      <c r="B200" s="184"/>
+      <c r="C200" s="184"/>
+      <c r="D200" s="184"/>
+      <c r="E200" s="184"/>
+      <c r="F200" s="184"/>
+      <c r="G200" s="184"/>
       <c r="H200" s="106"/>
       <c r="I200" s="106"/>
     </row>
@@ -51869,6 +53488,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="H80:H84"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="A2:G2"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A93:G93"/>
     <mergeCell ref="A200:G200"/>
@@ -51885,13 +53508,9 @@
     <mergeCell ref="N8:P9"/>
     <mergeCell ref="H13:H16"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="H80:H84"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:F89">
-    <cfRule type="cellIs" dxfId="215" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51931,32 +53550,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
         <v>504</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
       <c r="J1" s="104"/>
       <c r="K1" s="104"/>
     </row>
     <row r="2" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="183" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
       <c r="J2" s="103"/>
       <c r="K2" s="103"/>
     </row>
@@ -51994,14 +53613,14 @@
       <c r="K3" s="172" t="s">
         <v>556</v>
       </c>
-      <c r="N3" s="197" t="s">
+      <c r="N3" s="199" t="s">
         <v>539</v>
       </c>
-      <c r="O3" s="197"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="197"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="94" t="s">
@@ -52041,9 +53660,9 @@
         <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
         <v>0.98159509202453987</v>
       </c>
-      <c r="N4" s="198"/>
-      <c r="O4" s="198"/>
-      <c r="P4" s="198"/>
+      <c r="N4" s="200"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="200"/>
       <c r="Q4" s="133" t="s">
         <v>541</v>
       </c>
@@ -52092,11 +53711,11 @@
         <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
         <v>1.9230769230769231</v>
       </c>
-      <c r="N5" s="199" t="s">
+      <c r="N5" s="201" t="s">
         <v>160</v>
       </c>
-      <c r="O5" s="199"/>
-      <c r="P5" s="199"/>
+      <c r="O5" s="201"/>
+      <c r="P5" s="201"/>
       <c r="Q5" s="82">
         <f>H41</f>
         <v>9262.7920000000013</v>
@@ -52148,11 +53767,11 @@
         <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
         <v>0.30464584920030463</v>
       </c>
-      <c r="N6" s="199" t="s">
+      <c r="N6" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="199"/>
-      <c r="P6" s="199"/>
+      <c r="O6" s="201"/>
+      <c r="P6" s="201"/>
       <c r="Q6" s="82">
         <f>H90</f>
         <v>20168.763999999999</v>
@@ -52204,11 +53823,11 @@
         <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
         <v>0.23961661341853036</v>
       </c>
-      <c r="N7" s="199" t="s">
+      <c r="N7" s="201" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="199"/>
-      <c r="P7" s="199"/>
+      <c r="O7" s="201"/>
+      <c r="P7" s="201"/>
       <c r="Q7" s="82">
         <f>H127</f>
         <v>13106.016</v>
@@ -52260,20 +53879,20 @@
         <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
         <v>0.77294685990338163</v>
       </c>
-      <c r="N8" s="188" t="s">
+      <c r="N8" s="189" t="s">
         <v>540</v>
       </c>
-      <c r="O8" s="188"/>
-      <c r="P8" s="188"/>
-      <c r="Q8" s="189">
+      <c r="O8" s="189"/>
+      <c r="P8" s="189"/>
+      <c r="Q8" s="193">
         <f>SUM(Q5:Q7)</f>
         <v>42537.572</v>
       </c>
-      <c r="R8" s="189">
+      <c r="R8" s="193">
         <f>SUM(R5:R7)</f>
         <v>83456.651898000026</v>
       </c>
-      <c r="S8" s="189">
+      <c r="S8" s="193">
         <f>S5+S6+S7</f>
         <v>125994.22389800003</v>
       </c>
@@ -52316,12 +53935,12 @@
         <f>Table17[[#This Row],[L/s]]/Table17[[#This Row],[Area]]</f>
         <v>0.13661202185792348</v>
       </c>
-      <c r="N9" s="188"/>
-      <c r="O9" s="188"/>
-      <c r="P9" s="188"/>
-      <c r="Q9" s="190"/>
-      <c r="R9" s="190"/>
-      <c r="S9" s="190"/>
+      <c r="N9" s="189"/>
+      <c r="O9" s="189"/>
+      <c r="P9" s="189"/>
+      <c r="Q9" s="194"/>
+      <c r="R9" s="194"/>
+      <c r="S9" s="194"/>
     </row>
     <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="94" t="s">
@@ -53550,10 +55169,10 @@
       <c r="K41" s="89"/>
     </row>
     <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G42" s="209" t="s">
+      <c r="G42" s="210" t="s">
         <v>161</v>
       </c>
-      <c r="H42" s="209"/>
+      <c r="H42" s="210"/>
       <c r="I42" s="128">
         <f>H41+I41</f>
         <v>27565.946668000008</v>
@@ -53573,17 +55192,17 @@
       <c r="K43" s="124"/>
     </row>
     <row r="44" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="182" t="s">
+      <c r="A44" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="182"/>
-      <c r="C44" s="182"/>
-      <c r="D44" s="182"/>
-      <c r="E44" s="182"/>
-      <c r="F44" s="182"/>
-      <c r="G44" s="182"/>
-      <c r="H44" s="182"/>
-      <c r="I44" s="182"/>
+      <c r="B44" s="183"/>
+      <c r="C44" s="183"/>
+      <c r="D44" s="183"/>
+      <c r="E44" s="183"/>
+      <c r="F44" s="183"/>
+      <c r="G44" s="183"/>
+      <c r="H44" s="183"/>
+      <c r="I44" s="183"/>
       <c r="J44" s="103"/>
       <c r="K44" s="103"/>
     </row>
@@ -55261,10 +56880,10 @@
       </c>
     </row>
     <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G91" s="209" t="s">
+      <c r="G91" s="210" t="s">
         <v>161</v>
       </c>
-      <c r="H91" s="209"/>
+      <c r="H91" s="210"/>
       <c r="I91" s="128">
         <f>H90+I90</f>
         <v>59640.959050000005</v>
@@ -55284,17 +56903,17 @@
       <c r="K92" s="124"/>
     </row>
     <row r="93" spans="1:11" s="105" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A93" s="183" t="s">
+      <c r="A93" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="B93" s="183"/>
-      <c r="C93" s="183"/>
-      <c r="D93" s="183"/>
-      <c r="E93" s="183"/>
-      <c r="F93" s="183"/>
-      <c r="G93" s="183"/>
-      <c r="H93" s="183"/>
-      <c r="I93" s="183"/>
+      <c r="B93" s="184"/>
+      <c r="C93" s="184"/>
+      <c r="D93" s="184"/>
+      <c r="E93" s="184"/>
+      <c r="F93" s="184"/>
+      <c r="G93" s="184"/>
+      <c r="H93" s="184"/>
+      <c r="I93" s="184"/>
       <c r="J93" s="106"/>
       <c r="K93" s="106"/>
     </row>
@@ -56528,10 +58147,10 @@
       </c>
     </row>
     <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G128" s="209" t="s">
+      <c r="G128" s="210" t="s">
         <v>161</v>
       </c>
-      <c r="H128" s="209"/>
+      <c r="H128" s="210"/>
       <c r="I128" s="128">
         <f>H127+I127</f>
         <v>38787.318180000009</v>
@@ -56539,22 +58158,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="G128:H128"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A44:I44"/>
     <mergeCell ref="A93:I93"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="G91:H91"/>
-    <mergeCell ref="N8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -56590,29 +58209,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
         <v>503</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
       <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="183" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
       <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -56646,14 +58265,14 @@
       <c r="J3" s="101" t="s">
         <v>558</v>
       </c>
-      <c r="N3" s="197" t="s">
+      <c r="N3" s="199" t="s">
         <v>539</v>
       </c>
-      <c r="O3" s="197"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="197"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="94" t="s">
@@ -56690,9 +58309,9 @@
         <f>Table22[[#This Row],[Ql (W)]]/Table22[[#This Row],[Occ]]</f>
         <v>12.88</v>
       </c>
-      <c r="N4" s="198"/>
-      <c r="O4" s="198"/>
-      <c r="P4" s="198"/>
+      <c r="N4" s="200"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="200"/>
       <c r="Q4" s="133" t="s">
         <v>541</v>
       </c>
@@ -56738,11 +58357,11 @@
         <f>Table22[[#This Row],[Ql (W)]]/Table22[[#This Row],[Occ]]</f>
         <v>23</v>
       </c>
-      <c r="N5" s="199" t="s">
+      <c r="N5" s="201" t="s">
         <v>160</v>
       </c>
-      <c r="O5" s="199"/>
-      <c r="P5" s="199"/>
+      <c r="O5" s="201"/>
+      <c r="P5" s="201"/>
       <c r="Q5" s="82">
         <f>G41</f>
         <v>6432.18</v>
@@ -56791,11 +58410,11 @@
         <f>Table22[[#This Row],[Ql (W)]]/Table22[[#This Row],[Occ]]</f>
         <v>7.3600000000000012</v>
       </c>
-      <c r="N6" s="199" t="s">
+      <c r="N6" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="199"/>
-      <c r="P6" s="199"/>
+      <c r="O6" s="201"/>
+      <c r="P6" s="201"/>
       <c r="Q6" s="82">
         <f>G90</f>
         <v>8765.2999999999993</v>
@@ -56844,11 +58463,11 @@
         <f>Table22[[#This Row],[Ql (W)]]/Table22[[#This Row],[Occ]]</f>
         <v>23</v>
       </c>
-      <c r="N7" s="199" t="s">
+      <c r="N7" s="201" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="199"/>
-      <c r="P7" s="199"/>
+      <c r="O7" s="201"/>
+      <c r="P7" s="201"/>
       <c r="Q7" s="82">
         <f>G127</f>
         <v>4519.5</v>
@@ -56897,20 +58516,20 @@
         <f>Table22[[#This Row],[Ql (W)]]/Table22[[#This Row],[Occ]]</f>
         <v>34.5</v>
       </c>
-      <c r="N8" s="188" t="s">
+      <c r="N8" s="189" t="s">
         <v>540</v>
       </c>
-      <c r="O8" s="188"/>
-      <c r="P8" s="188"/>
-      <c r="Q8" s="189">
+      <c r="O8" s="189"/>
+      <c r="P8" s="189"/>
+      <c r="Q8" s="193">
         <f>SUM(Q5:Q7)</f>
         <v>19716.98</v>
       </c>
-      <c r="R8" s="189">
+      <c r="R8" s="193">
         <f>SUM(R5:R7)</f>
         <v>10453.359999999999</v>
       </c>
-      <c r="S8" s="189">
+      <c r="S8" s="193">
         <f>S5+S6+S7</f>
         <v>30170.339999999997</v>
       </c>
@@ -56950,12 +58569,12 @@
         <f>Table22[[#This Row],[Ql (W)]]/Table22[[#This Row],[Occ]]</f>
         <v>31.05</v>
       </c>
-      <c r="N9" s="188"/>
-      <c r="O9" s="188"/>
-      <c r="P9" s="188"/>
-      <c r="Q9" s="190"/>
-      <c r="R9" s="190"/>
-      <c r="S9" s="190"/>
+      <c r="N9" s="189"/>
+      <c r="O9" s="189"/>
+      <c r="P9" s="189"/>
+      <c r="Q9" s="194"/>
+      <c r="R9" s="194"/>
+      <c r="S9" s="194"/>
     </row>
     <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="94" t="s">
@@ -58079,26 +59698,26 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F42" s="209" t="s">
+      <c r="F42" s="210" t="s">
         <v>161</v>
       </c>
-      <c r="G42" s="209"/>
+      <c r="G42" s="210"/>
       <c r="H42" s="128">
         <f>G41+H41</f>
         <v>8320.9399999999987</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="182" t="s">
+      <c r="A44" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="182"/>
-      <c r="C44" s="182"/>
-      <c r="D44" s="182"/>
-      <c r="E44" s="182"/>
-      <c r="F44" s="182"/>
-      <c r="G44" s="182"/>
-      <c r="H44" s="182"/>
+      <c r="B44" s="183"/>
+      <c r="C44" s="183"/>
+      <c r="D44" s="183"/>
+      <c r="E44" s="183"/>
+      <c r="F44" s="183"/>
+      <c r="G44" s="183"/>
+      <c r="H44" s="183"/>
       <c r="I44" s="103"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -59731,26 +61350,26 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F91" s="209" t="s">
+      <c r="F91" s="210" t="s">
         <v>161</v>
       </c>
-      <c r="G91" s="209"/>
+      <c r="G91" s="210"/>
       <c r="H91" s="128">
         <f>G90+H90</f>
         <v>15197.8</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A93" s="183" t="s">
+      <c r="A93" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="B93" s="183"/>
-      <c r="C93" s="183"/>
-      <c r="D93" s="183"/>
-      <c r="E93" s="183"/>
-      <c r="F93" s="183"/>
-      <c r="G93" s="183"/>
-      <c r="H93" s="183"/>
+      <c r="B93" s="184"/>
+      <c r="C93" s="184"/>
+      <c r="D93" s="184"/>
+      <c r="E93" s="184"/>
+      <c r="F93" s="184"/>
+      <c r="G93" s="184"/>
+      <c r="H93" s="184"/>
       <c r="I93" s="106"/>
     </row>
     <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -60951,10 +62570,10 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F128" s="209" t="s">
+      <c r="F128" s="210" t="s">
         <v>534</v>
       </c>
-      <c r="G128" s="209"/>
+      <c r="G128" s="210"/>
       <c r="H128" s="128">
         <f>G127+H127</f>
         <v>6651.6</v>
@@ -60962,11 +62581,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F91:G91"/>
     <mergeCell ref="F128:G128"/>
     <mergeCell ref="N3:S3"/>
     <mergeCell ref="N4:P4"/>
@@ -60978,6 +62592,11 @@
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="A93:H93"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F91:G91"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -61008,28 +62627,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
         <v>535</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
       <c r="H1" s="129"/>
       <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="211" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
       <c r="H2" s="103"/>
       <c r="I2" s="103"/>
     </row>
@@ -61056,14 +62675,14 @@
         <v>23</v>
       </c>
       <c r="H3" s="85"/>
-      <c r="K3" s="185" t="s">
+      <c r="K3" s="186" t="s">
         <v>539</v>
       </c>
-      <c r="L3" s="185"/>
-      <c r="M3" s="185"/>
-      <c r="N3" s="185"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="185"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="186"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="81" t="s">
@@ -61090,14 +62709,14 @@
         <v>23.340240000000001</v>
       </c>
       <c r="H4" s="85"/>
-      <c r="K4" s="186"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="186"/>
-      <c r="N4" s="186" t="s">
+      <c r="K4" s="187"/>
+      <c r="L4" s="187"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="187" t="s">
         <v>430</v>
       </c>
-      <c r="O4" s="186"/>
-      <c r="P4" s="186"/>
+      <c r="O4" s="187"/>
+      <c r="P4" s="187"/>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="81" t="s">
@@ -61124,17 +62743,17 @@
         <v>4.21875</v>
       </c>
       <c r="H5" s="112"/>
-      <c r="K5" s="187" t="s">
+      <c r="K5" s="188" t="s">
         <v>160</v>
       </c>
-      <c r="L5" s="187"/>
-      <c r="M5" s="187"/>
-      <c r="N5" s="187">
+      <c r="L5" s="188"/>
+      <c r="M5" s="188"/>
+      <c r="N5" s="188">
         <f>G63</f>
         <v>1147.9227799999999</v>
       </c>
-      <c r="O5" s="187"/>
-      <c r="P5" s="187"/>
+      <c r="O5" s="188"/>
+      <c r="P5" s="188"/>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="81" t="s">
@@ -61161,17 +62780,17 @@
         <v>23.340240000000001</v>
       </c>
       <c r="H6" s="85"/>
-      <c r="K6" s="187" t="s">
+      <c r="K6" s="188" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="187"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="187">
+      <c r="L6" s="188"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="188">
         <f>G137</f>
         <v>1229.8197599999994</v>
       </c>
-      <c r="O6" s="187"/>
-      <c r="P6" s="187"/>
+      <c r="O6" s="188"/>
+      <c r="P6" s="188"/>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="81"/>
@@ -61196,17 +62815,17 @@
         <v>3.8515200000000003</v>
       </c>
       <c r="H7" s="85"/>
-      <c r="K7" s="187" t="s">
+      <c r="K7" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="187"/>
-      <c r="M7" s="187"/>
-      <c r="N7" s="187">
+      <c r="L7" s="188"/>
+      <c r="M7" s="188"/>
+      <c r="N7" s="188">
         <f>G201</f>
         <v>1068.55</v>
       </c>
-      <c r="O7" s="187"/>
-      <c r="P7" s="187"/>
+      <c r="O7" s="188"/>
+      <c r="P7" s="188"/>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="81" t="s">
@@ -61233,17 +62852,17 @@
         <v>16.974720000000001</v>
       </c>
       <c r="H8" s="85"/>
-      <c r="K8" s="188" t="s">
+      <c r="K8" s="189" t="s">
         <v>540</v>
       </c>
-      <c r="L8" s="188"/>
-      <c r="M8" s="188"/>
-      <c r="N8" s="201">
+      <c r="L8" s="189"/>
+      <c r="M8" s="189"/>
+      <c r="N8" s="203">
         <f>N5+N6+N7</f>
         <v>3446.2925399999995</v>
       </c>
-      <c r="O8" s="202"/>
-      <c r="P8" s="203"/>
+      <c r="O8" s="204"/>
+      <c r="P8" s="205"/>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="81" t="s">
@@ -61270,12 +62889,12 @@
         <v>16.974720000000001</v>
       </c>
       <c r="H9" s="85"/>
-      <c r="K9" s="188"/>
-      <c r="L9" s="188"/>
-      <c r="M9" s="188"/>
-      <c r="N9" s="204"/>
-      <c r="O9" s="205"/>
-      <c r="P9" s="206"/>
+      <c r="K9" s="189"/>
+      <c r="L9" s="189"/>
+      <c r="M9" s="189"/>
+      <c r="N9" s="206"/>
+      <c r="O9" s="207"/>
+      <c r="P9" s="208"/>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="81" t="s">
@@ -62631,15 +64250,15 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="210" t="s">
+      <c r="A65" s="211" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="210"/>
-      <c r="C65" s="210"/>
-      <c r="D65" s="210"/>
-      <c r="E65" s="210"/>
-      <c r="F65" s="210"/>
-      <c r="G65" s="210"/>
+      <c r="B65" s="211"/>
+      <c r="C65" s="211"/>
+      <c r="D65" s="211"/>
+      <c r="E65" s="211"/>
+      <c r="F65" s="211"/>
+      <c r="G65" s="211"/>
       <c r="H65" s="130"/>
       <c r="I65" s="118"/>
     </row>
@@ -65996,22 +67615,22 @@
     <mergeCell ref="N8:P9"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:H62">
-    <cfRule type="cellIs" dxfId="80" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D135:G136 D67:H134 C67:C136">
-    <cfRule type="cellIs" dxfId="79" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>$I$65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D141:H200">
-    <cfRule type="cellIs" dxfId="78" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
       <formula>$J$182</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C141:C200">
-    <cfRule type="cellIs" dxfId="77" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>$J$182</formula>
     </cfRule>
   </conditionalFormatting>
